--- a/DELL.xlsx
+++ b/DELL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04F8F08-EC95-4573-AFC4-97AF42F53353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A266E013-203F-48B8-8AAE-C16290C4D768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{84B91150-D63F-434F-B036-DDB9093FBDB9}"/>
+    <workbookView xWindow="1335" yWindow="1155" windowWidth="23670" windowHeight="14280" activeTab="1" xr2:uid="{84B91150-D63F-434F-B036-DDB9093FBDB9}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -305,10 +305,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -836,16 +834,16 @@
   <dimension ref="A1:DN60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -920,9 +918,9 @@
       <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="N2" s="4">
         <v>17624</v>
       </c>
@@ -967,14 +965,14 @@
       <c r="B5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="N5" s="14">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="N5" s="12">
         <f>4286/N4</f>
         <v>0.12648664600855836</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="12">
         <f>5579/O4</f>
         <v>0.12797926272566695</v>
       </c>
@@ -1152,23 +1150,23 @@
         <v>60162</v>
       </c>
       <c r="P13" s="2">
-        <f>P10*(1-P35)</f>
+        <f t="shared" ref="P13:T14" si="9">P10*(1-P35)</f>
         <v>60828.41399999999</v>
       </c>
       <c r="Q13" s="2">
-        <f>Q10*(1-Q35)</f>
+        <f t="shared" si="9"/>
         <v>62044.982279999997</v>
       </c>
       <c r="R13" s="2">
-        <f>R10*(1-R35)</f>
+        <f t="shared" si="9"/>
         <v>63285.881925599992</v>
       </c>
       <c r="S13" s="2">
-        <f>S10*(1-S35)</f>
+        <f t="shared" si="9"/>
         <v>64551.599564111995</v>
       </c>
       <c r="T13" s="2">
-        <f>T10*(1-T35)</f>
+        <f t="shared" si="9"/>
         <v>65842.63155539424</v>
       </c>
     </row>
@@ -1186,23 +1184,23 @@
         <v>14155</v>
       </c>
       <c r="P14" s="2">
-        <f>P11*(1-P36)</f>
+        <f t="shared" si="9"/>
         <v>14409.4496</v>
       </c>
       <c r="Q14" s="2">
-        <f>Q11*(1-Q36)</f>
+        <f t="shared" si="9"/>
         <v>14651.88055552</v>
       </c>
       <c r="R14" s="2">
-        <f>R11*(1-R36)</f>
+        <f t="shared" si="9"/>
         <v>14880.231720833024</v>
       </c>
       <c r="S14" s="2">
-        <f>S11*(1-S36)</f>
+        <f t="shared" si="9"/>
         <v>15092.246979906737</v>
       </c>
       <c r="T14" s="2">
-        <f>T11*(1-T36)</f>
+        <f t="shared" si="9"/>
         <v>15285.459435848512</v>
       </c>
     </row>
@@ -1215,31 +1213,31 @@
         <v>13221</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" ref="N15:O15" si="9">N10-N13</f>
+        <f t="shared" ref="N15:O15" si="10">N10-N13</f>
         <v>11237</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11258</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" ref="P15:S15" si="10">P10-P13</f>
+        <f t="shared" ref="P15:S15" si="11">P10-P13</f>
         <v>12019.986000000004</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12260.385720000006</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12505.593434400005</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12755.705303088005</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" ref="T15" si="11">T10-T13</f>
+        <f t="shared" ref="T15" si="12">T10-T13</f>
         <v>13010.819409149757</v>
       </c>
     </row>
@@ -1252,31 +1250,31 @@
         <v>9465</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" ref="N16:O16" si="12">N11-N14</f>
+        <f t="shared" ref="N16:O16" si="13">N11-N14</f>
         <v>9832</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9992</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" ref="P16:S16" si="13">P11-P14</f>
+        <f t="shared" ref="P16:S16" si="14">P11-P14</f>
         <v>10703.430400000001</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11465.514644480003</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12281.859287166979</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13156.327668413269</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" ref="T16" si="14">T11-T14</f>
+        <f t="shared" ref="T16" si="15">T11-T14</f>
         <v>14093.058198404295</v>
       </c>
     </row>
@@ -1317,11 +1315,11 @@
         <v>16915</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" ref="N19:O19" si="15">SUM(N17:N18)</f>
+        <f t="shared" ref="N19:O19" si="16">SUM(N17:N18)</f>
         <v>15658</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15013</v>
       </c>
       <c r="P19" s="2">
@@ -1329,19 +1327,19 @@
         <v>16653.417600000001</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="Q19:S19" si="16">Q12*Q37</f>
+        <f t="shared" ref="Q19:S19" si="17">Q12*Q37</f>
         <v>17071.869744</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17502.106282560002</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17944.499517638404</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" ref="T19" si="17">T12*T37</f>
+        <f t="shared" ref="T19" si="18">T12*T37</f>
         <v>18399.434661795458</v>
       </c>
     </row>
@@ -1354,31 +1352,31 @@
         <v>5771</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" ref="N20:T20" si="18">SUM(N15:N16)-N19</f>
+        <f t="shared" ref="N20:T20" si="19">SUM(N15:N16)-N19</f>
         <v>5411</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6237</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6069.9988000000048</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6654.0306204800108</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7285.3464390069821</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7967.5334538628704</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8704.4429457585939</v>
       </c>
     </row>
@@ -1425,31 +1423,31 @@
         <v>3225</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" ref="N22:T22" si="19">N20+N21</f>
+        <f t="shared" ref="N22:T22" si="20">N20+N21</f>
         <v>4087</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5048</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4211.6188000000047</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5000.3352941600115</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5874.6674079831591</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6842.3632588670289</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7911.81160514369</v>
       </c>
     </row>
@@ -1471,19 +1469,19 @@
         <v>800.20757200000094</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" ref="Q23:T23" si="20">Q22*Q32</f>
+        <f t="shared" ref="Q23:T23" si="21">Q22*Q32</f>
         <v>950.06370589040216</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1116.1868075168002</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1300.0490191847355</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1503.244204977301</v>
       </c>
     </row>
@@ -1497,423 +1495,423 @@
         <v>2422</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" ref="N24:T24" si="21">N22-N23</f>
+        <f t="shared" ref="N24:T24" si="22">N22-N23</f>
         <v>3372</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4576</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3411.4112280000036</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4050.2715882696093</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4758.4806004663587</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5542.3142396822932</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6408.5674001663892</v>
       </c>
       <c r="U24" s="4">
-        <f>T24*(1+$W$51)</f>
+        <f t="shared" ref="U24:AZ24" si="23">T24*(1+$W$51)</f>
         <v>6472.6530741680535</v>
       </c>
       <c r="V24" s="4">
-        <f>U24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>6537.3796049097346</v>
       </c>
       <c r="W24" s="4">
-        <f>V24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>6602.7534009588317</v>
       </c>
       <c r="X24" s="4">
-        <f>W24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>6668.7809349684203</v>
       </c>
       <c r="Y24" s="4">
-        <f>X24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>6735.4687443181047</v>
       </c>
       <c r="Z24" s="4">
-        <f>Y24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>6802.823431761286</v>
       </c>
       <c r="AA24" s="4">
-        <f>Z24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>6870.8516660788991</v>
       </c>
       <c r="AB24" s="4">
-        <f>AA24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>6939.5601827396886</v>
       </c>
       <c r="AC24" s="4">
-        <f>AB24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7008.9557845670852</v>
       </c>
       <c r="AD24" s="4">
-        <f>AC24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7079.0453424127563</v>
       </c>
       <c r="AE24" s="4">
-        <f>AD24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7149.8357958368842</v>
       </c>
       <c r="AF24" s="4">
-        <f>AE24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7221.3341537952529</v>
       </c>
       <c r="AG24" s="4">
-        <f>AF24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7293.547495333205</v>
       </c>
       <c r="AH24" s="4">
-        <f>AG24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7366.4829702865372</v>
       </c>
       <c r="AI24" s="4">
-        <f>AH24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7440.1477999894023</v>
       </c>
       <c r="AJ24" s="4">
-        <f>AI24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7514.5492779892966</v>
       </c>
       <c r="AK24" s="4">
-        <f>AJ24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7589.6947707691897</v>
       </c>
       <c r="AL24" s="4">
-        <f>AK24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7665.5917184768814</v>
       </c>
       <c r="AM24" s="4">
-        <f>AL24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7742.2476356616498</v>
       </c>
       <c r="AN24" s="4">
-        <f>AM24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7819.6701120182661</v>
       </c>
       <c r="AO24" s="4">
-        <f>AN24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7897.8668131384484</v>
       </c>
       <c r="AP24" s="4">
-        <f>AO24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>7976.8454812698328</v>
       </c>
       <c r="AQ24" s="4">
-        <f>AP24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>8056.6139360825309</v>
       </c>
       <c r="AR24" s="4">
-        <f>AQ24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>8137.1800754433561</v>
       </c>
       <c r="AS24" s="4">
-        <f>AR24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>8218.5518761977892</v>
       </c>
       <c r="AT24" s="4">
-        <f>AS24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>8300.7373949597677</v>
       </c>
       <c r="AU24" s="4">
-        <f>AT24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>8383.744768909366</v>
       </c>
       <c r="AV24" s="4">
-        <f>AU24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>8467.5822165984591</v>
       </c>
       <c r="AW24" s="4">
-        <f>AV24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>8552.258038764443</v>
       </c>
       <c r="AX24" s="4">
-        <f>AW24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>8637.7806191520867</v>
       </c>
       <c r="AY24" s="4">
-        <f>AX24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>8724.1584253436085</v>
       </c>
       <c r="AZ24" s="4">
-        <f>AY24*(1+$W$51)</f>
+        <f t="shared" si="23"/>
         <v>8811.4000095970441</v>
       </c>
       <c r="BA24" s="4">
-        <f>AZ24*(1+$W$51)</f>
+        <f t="shared" ref="BA24:CF24" si="24">AZ24*(1+$W$51)</f>
         <v>8899.5140096930154</v>
       </c>
       <c r="BB24" s="4">
-        <f>BA24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>8988.5091497899448</v>
       </c>
       <c r="BC24" s="4">
-        <f>BB24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>9078.3942412878441</v>
       </c>
       <c r="BD24" s="4">
-        <f>BC24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>9169.178183700722</v>
       </c>
       <c r="BE24" s="4">
-        <f>BD24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>9260.8699655377295</v>
       </c>
       <c r="BF24" s="4">
-        <f>BE24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>9353.4786651931063</v>
       </c>
       <c r="BG24" s="4">
-        <f>BF24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>9447.0134518450377</v>
       </c>
       <c r="BH24" s="4">
-        <f>BG24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>9541.4835863634889</v>
       </c>
       <c r="BI24" s="4">
-        <f>BH24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>9636.8984222271247</v>
       </c>
       <c r="BJ24" s="4">
-        <f>BI24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>9733.2674064493967</v>
       </c>
       <c r="BK24" s="4">
-        <f>BJ24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>9830.6000805138901</v>
       </c>
       <c r="BL24" s="4">
-        <f>BK24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>9928.9060813190299</v>
       </c>
       <c r="BM24" s="4">
-        <f>BL24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>10028.195142132221</v>
       </c>
       <c r="BN24" s="4">
-        <f>BM24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>10128.477093553543</v>
       </c>
       <c r="BO24" s="4">
-        <f>BN24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>10229.761864489079</v>
       </c>
       <c r="BP24" s="4">
-        <f>BO24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>10332.059483133969</v>
       </c>
       <c r="BQ24" s="4">
-        <f>BP24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>10435.380077965308</v>
       </c>
       <c r="BR24" s="4">
-        <f>BQ24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>10539.733878744961</v>
       </c>
       <c r="BS24" s="4">
-        <f>BR24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>10645.131217532411</v>
       </c>
       <c r="BT24" s="4">
-        <f>BS24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>10751.582529707735</v>
       </c>
       <c r="BU24" s="4">
-        <f>BT24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>10859.098355004813</v>
       </c>
       <c r="BV24" s="4">
-        <f>BU24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>10967.689338554861</v>
       </c>
       <c r="BW24" s="4">
-        <f>BV24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>11077.36623194041</v>
       </c>
       <c r="BX24" s="4">
-        <f>BW24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>11188.139894259815</v>
       </c>
       <c r="BY24" s="4">
-        <f>BX24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>11300.021293202413</v>
       </c>
       <c r="BZ24" s="4">
-        <f>BY24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>11413.021506134437</v>
       </c>
       <c r="CA24" s="4">
-        <f>BZ24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>11527.151721195782</v>
       </c>
       <c r="CB24" s="4">
-        <f>CA24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>11642.42323840774</v>
       </c>
       <c r="CC24" s="4">
-        <f>CB24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>11758.847470791818</v>
       </c>
       <c r="CD24" s="4">
-        <f>CC24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>11876.435945499736</v>
       </c>
       <c r="CE24" s="4">
-        <f>CD24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>11995.200304954733</v>
       </c>
       <c r="CF24" s="4">
-        <f>CE24*(1+$W$51)</f>
+        <f t="shared" si="24"/>
         <v>12115.152308004281</v>
       </c>
       <c r="CG24" s="4">
-        <f>CF24*(1+$W$51)</f>
+        <f t="shared" ref="CG24:DN24" si="25">CF24*(1+$W$51)</f>
         <v>12236.303831084324</v>
       </c>
       <c r="CH24" s="4">
-        <f>CG24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>12358.666869395167</v>
       </c>
       <c r="CI24" s="4">
-        <f>CH24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>12482.253538089119</v>
       </c>
       <c r="CJ24" s="4">
-        <f>CI24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>12607.076073470011</v>
       </c>
       <c r="CK24" s="4">
-        <f>CJ24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>12733.14683420471</v>
       </c>
       <c r="CL24" s="4">
-        <f>CK24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>12860.478302546757</v>
       </c>
       <c r="CM24" s="4">
-        <f>CL24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>12989.083085572225</v>
       </c>
       <c r="CN24" s="4">
-        <f>CM24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>13118.973916427947</v>
       </c>
       <c r="CO24" s="4">
-        <f>CN24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>13250.163655592227</v>
       </c>
       <c r="CP24" s="4">
-        <f>CO24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>13382.665292148149</v>
       </c>
       <c r="CQ24" s="4">
-        <f>CP24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>13516.491945069631</v>
       </c>
       <c r="CR24" s="4">
-        <f>CQ24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>13651.656864520328</v>
       </c>
       <c r="CS24" s="4">
-        <f>CR24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>13788.173433165532</v>
       </c>
       <c r="CT24" s="4">
-        <f>CS24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>13926.055167497187</v>
       </c>
       <c r="CU24" s="4">
-        <f>CT24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>14065.315719172158</v>
       </c>
       <c r="CV24" s="4">
-        <f>CU24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>14205.968876363881</v>
       </c>
       <c r="CW24" s="4">
-        <f>CV24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>14348.028565127519</v>
       </c>
       <c r="CX24" s="4">
-        <f>CW24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>14491.508850778795</v>
       </c>
       <c r="CY24" s="4">
-        <f>CX24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>14636.423939286584</v>
       </c>
       <c r="CZ24" s="4">
-        <f>CY24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>14782.78817867945</v>
       </c>
       <c r="DA24" s="4">
-        <f>CZ24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>14930.616060466244</v>
       </c>
       <c r="DB24" s="4">
-        <f>DA24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>15079.922221070907</v>
       </c>
       <c r="DC24" s="4">
-        <f>DB24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>15230.721443281616</v>
       </c>
       <c r="DD24" s="4">
-        <f>DC24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>15383.028657714432</v>
       </c>
       <c r="DE24" s="4">
-        <f>DD24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>15536.858944291576</v>
       </c>
       <c r="DF24" s="4">
-        <f>DE24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>15692.227533734493</v>
       </c>
       <c r="DG24" s="4">
-        <f>DF24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>15849.149809071838</v>
       </c>
       <c r="DH24" s="4">
-        <f>DG24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>16007.641307162556</v>
       </c>
       <c r="DI24" s="4">
-        <f>DH24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>16167.717720234181</v>
       </c>
       <c r="DJ24" s="4">
-        <f>DI24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>16329.394897436523</v>
       </c>
       <c r="DK24" s="4">
-        <f>DJ24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>16492.688846410889</v>
       </c>
       <c r="DL24" s="4">
-        <f>DK24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>16657.615734874998</v>
       </c>
       <c r="DM24" s="4">
-        <f>DL24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>16824.191892223749</v>
       </c>
       <c r="DN24" s="4">
-        <f>DM24*(1+$W$51)</f>
+        <f t="shared" si="25"/>
         <v>16992.433811145987</v>
       </c>
     </row>
@@ -1935,19 +1933,19 @@
         <v>4.8885236116890898</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" ref="Q25:T25" si="22">Q24/Q26</f>
+        <f t="shared" ref="Q25:T25" si="26">Q24/Q26</f>
         <v>5.8040051373746131</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>6.8188626982921594</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>7.9420897139896285</v>
       </c>
       <c r="T25" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>9.1834232108045128</v>
       </c>
     </row>
@@ -1979,100 +1977,100 @@
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="8">
         <f>N12/M12-1</f>
         <v>-0.13563894781087182</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="8">
         <f>O12/N12-1</f>
         <v>8.0769013288097158E-2</v>
       </c>
-      <c r="P28" s="9">
-        <f t="shared" ref="P28:S28" si="23">P12/O12-1</f>
+      <c r="P28" s="8">
+        <f t="shared" ref="P28:S28" si="27">P12/O12-1</f>
         <v>2.5053418020865026E-2</v>
       </c>
-      <c r="Q28" s="9">
-        <f t="shared" si="23"/>
+      <c r="Q28" s="8">
+        <f t="shared" si="27"/>
         <v>2.5127103279989793E-2</v>
       </c>
-      <c r="R28" s="9">
-        <f t="shared" si="23"/>
+      <c r="R28" s="8">
+        <f t="shared" si="27"/>
         <v>2.520148905840891E-2</v>
       </c>
-      <c r="S28" s="9">
-        <f t="shared" si="23"/>
+      <c r="S28" s="8">
+        <f t="shared" si="27"/>
         <v>2.5276571170135265E-2</v>
       </c>
-      <c r="T28" s="9">
-        <f t="shared" ref="T28" si="24">T12/S12-1</f>
+      <c r="T28" s="8">
+        <f t="shared" ref="T28" si="28">T12/S12-1</f>
         <v>2.5352345085460914E-2</v>
       </c>
     </row>
     <row r="29" spans="1:118" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="8">
         <f>N10/M10-1</f>
         <v>-0.18797476340694008</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O29" s="8">
         <f>O10/N10-1</f>
         <v>0.10981617018631606</v>
       </c>
-      <c r="P29" s="9">
-        <f t="shared" ref="P29:S29" si="25">P10/O10-1</f>
+      <c r="P29" s="8">
+        <f t="shared" ref="P29:S29" si="29">P10/O10-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="Q29" s="9">
-        <f t="shared" si="25"/>
+      <c r="Q29" s="8">
+        <f t="shared" si="29"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="R29" s="9">
-        <f t="shared" si="25"/>
+      <c r="R29" s="8">
+        <f t="shared" si="29"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="S29" s="9">
-        <f t="shared" si="25"/>
+      <c r="S29" s="8">
+        <f t="shared" si="29"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="T29" s="9">
-        <f t="shared" ref="T29" si="26">T10/S10-1</f>
+      <c r="T29" s="8">
+        <f t="shared" ref="T29" si="30">T10/S10-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="30" spans="1:118" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="8">
         <f>N11/M11-1</f>
         <v>4.4293089236909555E-2</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O30" s="8">
         <f>O11/N11-1</f>
         <v>3.1156530408773531E-3</v>
       </c>
-      <c r="P30" s="9">
-        <f t="shared" ref="P30:S30" si="27">P11/O11-1</f>
+      <c r="P30" s="8">
+        <f t="shared" ref="P30:S30" si="31">P11/O11-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Q30" s="9">
-        <f t="shared" si="27"/>
+      <c r="Q30" s="8">
+        <f t="shared" si="31"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="R30" s="9">
-        <f t="shared" si="27"/>
+      <c r="R30" s="8">
+        <f t="shared" si="31"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="S30" s="9">
-        <f t="shared" si="27"/>
+      <c r="S30" s="8">
+        <f t="shared" si="31"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="T30" s="9">
-        <f t="shared" ref="T30" si="28">T11/S11-1</f>
+      <c r="T30" s="8">
+        <f t="shared" ref="T30" si="32">T11/S11-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
@@ -2081,29 +2079,29 @@
       <c r="B31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9">
+      <c r="N31" s="8"/>
+      <c r="O31" s="8">
         <f>O2/N2-1</f>
         <v>0.53971856559237397</v>
       </c>
-      <c r="P31" s="9">
-        <f t="shared" ref="P31:T31" si="29">P2/O2-1</f>
+      <c r="P31" s="8">
+        <f t="shared" ref="P31:T31" si="33">P2/O2-1</f>
         <v>-1</v>
       </c>
-      <c r="Q31" s="9" t="e">
-        <f t="shared" si="29"/>
+      <c r="Q31" s="8" t="e">
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R31" s="9" t="e">
-        <f t="shared" si="29"/>
+      <c r="R31" s="8" t="e">
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S31" s="9" t="e">
-        <f t="shared" si="29"/>
+      <c r="S31" s="8" t="e">
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T31" s="9" t="e">
-        <f t="shared" si="29"/>
+      <c r="T31" s="8" t="e">
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2116,11 +2114,11 @@
         <v>0.2489922480620155</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" ref="N32:O32" si="30">N23/N22</f>
+        <f t="shared" ref="N32:O32" si="34">N23/N22</f>
         <v>0.17494494739417665</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>9.3502377179080817E-2</v>
       </c>
       <c r="P32" s="6">
@@ -2144,35 +2142,35 @@
         <v>39</v>
       </c>
       <c r="M34" s="6">
-        <f>SUM(M15:M16)/M12</f>
+        <f t="shared" ref="M34:T34" si="35">SUM(M15:M16)/M12</f>
         <v>0.22175736307562977</v>
       </c>
       <c r="N34" s="6">
-        <f>SUM(N15:N16)/N12</f>
+        <f t="shared" si="35"/>
         <v>0.23826972010178116</v>
       </c>
       <c r="O34" s="6">
-        <f>SUM(O15:O16)/O12</f>
+        <f t="shared" si="35"/>
         <v>0.22235708979040883</v>
       </c>
       <c r="P34" s="6">
-        <f>SUM(P15:P16)/P12</f>
+        <f t="shared" si="35"/>
         <v>0.23196324506988888</v>
       </c>
       <c r="Q34" s="6">
-        <f>SUM(Q15:Q16)/Q12</f>
+        <f t="shared" si="35"/>
         <v>0.23626018253678177</v>
       </c>
       <c r="R34" s="6">
-        <f>SUM(R15:R16)/R12</f>
+        <f t="shared" si="35"/>
         <v>0.24076341982137894</v>
       </c>
       <c r="S34" s="6">
-        <f>SUM(S15:S16)/S12</f>
+        <f t="shared" si="35"/>
         <v>0.24548166421834794</v>
       </c>
       <c r="T34" s="6">
-        <f>SUM(T15:T16)/T12</f>
+        <f t="shared" si="35"/>
         <v>0.2504239547561492</v>
       </c>
     </row>
@@ -2180,31 +2178,31 @@
       <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="10">
         <f>M15/M10</f>
         <v>0.16682649842271294</v>
       </c>
-      <c r="N35" s="12">
-        <f t="shared" ref="N35:O35" si="31">N15/N10</f>
+      <c r="N35" s="10">
+        <f t="shared" ref="N35:O35" si="36">N15/N10</f>
         <v>0.17461501406305843</v>
       </c>
-      <c r="O35" s="12">
-        <f t="shared" si="31"/>
+      <c r="O35" s="10">
+        <f t="shared" si="36"/>
         <v>0.15763091570988519</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="10">
         <v>0.16500000000000001</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="Q35" s="10">
         <v>0.16500000000000001</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="10">
         <v>0.16500000000000001</v>
       </c>
-      <c r="S35" s="12">
+      <c r="S35" s="10">
         <v>0.16500000000000001</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T35" s="10">
         <v>0.16500000000000001</v>
       </c>
     </row>
@@ -2217,11 +2215,11 @@
         <v>0.41061125330788251</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" ref="N36:O36" si="32">N16/N11</f>
+        <f t="shared" ref="N36:O36" si="37">N16/N11</f>
         <v>0.40844134263875043</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.41379881558785769</v>
       </c>
       <c r="P36" s="6">
@@ -2229,19 +2227,19 @@
         <v>0.42621278005549346</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" ref="Q36:T36" si="33">P36*1.03</f>
+        <f t="shared" ref="Q36:T36" si="38">P36*1.03</f>
         <v>0.43899916345715828</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.45216913836087302</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.46573421251169922</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.47970623888705022</v>
       </c>
     </row>
@@ -2254,11 +2252,11 @@
         <v>0.16534540229323272</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" ref="N37:O37" si="34">N19/N12</f>
+        <f t="shared" ref="N37:O37" si="39">N19/N12</f>
         <v>0.17707661860333615</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.1570939759540427</v>
       </c>
       <c r="P37" s="6">
@@ -2290,19 +2288,19 @@
         <v>-27561.588771999996</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" ref="Q39:S39" si="35">P39+Q24</f>
+        <f t="shared" ref="Q39:S39" si="40">P39+Q24</f>
         <v>-23511.317183730385</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>-18752.836583264027</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>-13210.522343581733</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" ref="T39" si="36">S39+T24</f>
+        <f t="shared" ref="T39" si="41">S39+T24</f>
         <v>-6801.9549434153441</v>
       </c>
     </row>
@@ -2342,31 +2340,31 @@
         <v>2422</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" ref="N46:T46" si="37">N24</f>
+        <f t="shared" ref="N46:T46" si="42">N24</f>
         <v>3372</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>4576</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>3411.4112280000036</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>4050.2715882696093</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>4758.4806004663587</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>5542.3142396822932</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>6408.5674001663892</v>
       </c>
     </row>
@@ -2402,19 +2400,19 @@
         <v>3201.2418244791616</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" ref="Q48:T48" si="38">P48*(1+Q28)</f>
+        <f t="shared" ref="Q48:T48" si="43">P48*(1+Q28)</f>
         <v>3281.6797584270726</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3364.3829749522743</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3449.4230406622469</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3536.8740039348559</v>
       </c>
     </row>
@@ -2436,19 +2434,19 @@
         <v>863.50000000000011</v>
       </c>
       <c r="Q49" s="2">
-        <f t="shared" ref="Q49:T49" si="39">P49*1.1</f>
+        <f t="shared" ref="Q49:T49" si="44">P49*1.1</f>
         <v>949.85000000000025</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1044.8350000000003</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1149.3185000000003</v>
       </c>
       <c r="T49" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1264.2503500000005</v>
       </c>
     </row>
@@ -2483,7 +2481,7 @@
       <c r="V50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W50" s="10">
+      <c r="W50" s="9">
         <v>0.06</v>
       </c>
     </row>
@@ -2515,10 +2513,10 @@
       <c r="T51" s="2">
         <v>0</v>
       </c>
-      <c r="V51" s="8" t="s">
+      <c r="V51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W51" s="11">
+      <c r="W51" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -2553,7 +2551,7 @@
       <c r="V52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="W52" s="10">
+      <c r="W52" s="9">
         <v>0.08</v>
       </c>
     </row>
@@ -2660,10 +2658,10 @@
       <c r="U55" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V55" s="8" t="s">
+      <c r="V55" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W55" s="9">
+      <c r="W55" s="8">
         <f>W54/main!C2-1</f>
         <v>-3.8302050466907489E-2</v>
       </c>
@@ -2736,11 +2734,11 @@
         <v>2916</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" ref="N58:O58" si="40">SUM(N47:N57)</f>
+        <f t="shared" ref="N58:O58" si="45">SUM(N47:N57)</f>
         <v>9328</v>
       </c>
       <c r="O58" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>4521</v>
       </c>
       <c r="P58" s="4">
@@ -2748,19 +2746,19 @@
         <v>7476.1530524791651</v>
       </c>
       <c r="Q58" s="4">
-        <f t="shared" ref="Q58:T58" si="41">SUM(Q48:Q57,Q46)</f>
+        <f t="shared" ref="Q58:T58" si="46">SUM(Q48:Q57,Q46)</f>
         <v>8281.8013466966822</v>
       </c>
       <c r="R58" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>9167.6985754186335</v>
       </c>
       <c r="S58" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>10141.055780344541</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>11209.691754101244</v>
       </c>
     </row>
@@ -2783,19 +2781,19 @@
         <v>-2718.4416645913338</v>
       </c>
       <c r="Q59" s="4">
-        <f t="shared" ref="Q59:T59" si="42">P59*(1+Q28)</f>
+        <f t="shared" ref="Q59:T59" si="47">P59*(1+Q28)</f>
         <v>-2786.7482290581474</v>
       </c>
       <c r="R59" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>-2856.9784340612969</v>
       </c>
       <c r="S59" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>-2929.1930527813888</v>
       </c>
       <c r="T59" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>-3003.4549658774372</v>
       </c>
     </row>
@@ -2809,415 +2807,415 @@
         <v>-87</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" ref="N60:O60" si="43">N58+N59</f>
+        <f t="shared" ref="N60:O60" si="48">N58+N59</f>
         <v>6572</v>
       </c>
       <c r="O60" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1869</v>
       </c>
       <c r="P60" s="4">
-        <f t="shared" ref="P60" si="44">P58+P59</f>
+        <f t="shared" ref="P60" si="49">P58+P59</f>
         <v>4757.7113878878317</v>
       </c>
       <c r="Q60" s="4">
-        <f t="shared" ref="Q60" si="45">Q58+Q59</f>
+        <f t="shared" ref="Q60" si="50">Q58+Q59</f>
         <v>5495.0531176385348</v>
       </c>
       <c r="R60" s="4">
-        <f t="shared" ref="R60" si="46">R58+R59</f>
+        <f t="shared" ref="R60" si="51">R58+R59</f>
         <v>6310.7201413573366</v>
       </c>
       <c r="S60" s="4">
-        <f t="shared" ref="S60" si="47">S58+S59</f>
+        <f t="shared" ref="S60" si="52">S58+S59</f>
         <v>7211.8627275631516</v>
       </c>
       <c r="T60" s="4">
-        <f t="shared" ref="T60" si="48">T58+T59</f>
+        <f t="shared" ref="T60" si="53">T58+T59</f>
         <v>8206.2367882238068</v>
       </c>
       <c r="U60" s="4">
-        <f>T60*(1+$W$51)</f>
+        <f t="shared" ref="U60:AZ60" si="54">T60*(1+$W$51)</f>
         <v>8288.2991561060444</v>
       </c>
       <c r="V60" s="4">
-        <f>U60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>8371.1821476671048</v>
       </c>
       <c r="W60" s="4">
-        <f>V60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>8454.8939691437754</v>
       </c>
       <c r="X60" s="4">
-        <f>W60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>8539.4429088352135</v>
       </c>
       <c r="Y60" s="4">
-        <f>X60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>8624.8373379235654</v>
       </c>
       <c r="Z60" s="4">
-        <f>Y60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>8711.0857113028014</v>
       </c>
       <c r="AA60" s="4">
-        <f>Z60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>8798.1965684158295</v>
       </c>
       <c r="AB60" s="4">
-        <f>AA60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>8886.1785340999886</v>
       </c>
       <c r="AC60" s="4">
-        <f>AB60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>8975.0403194409882</v>
       </c>
       <c r="AD60" s="4">
-        <f>AC60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>9064.7907226353982</v>
       </c>
       <c r="AE60" s="4">
-        <f>AD60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>9155.4386298617519</v>
       </c>
       <c r="AF60" s="4">
-        <f>AE60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>9246.9930161603697</v>
       </c>
       <c r="AG60" s="4">
-        <f>AF60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>9339.4629463219735</v>
       </c>
       <c r="AH60" s="4">
-        <f>AG60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>9432.8575757851941</v>
       </c>
       <c r="AI60" s="4">
-        <f>AH60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>9527.1861515430464</v>
       </c>
       <c r="AJ60" s="4">
-        <f>AI60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>9622.4580130584764</v>
       </c>
       <c r="AK60" s="4">
-        <f>AJ60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>9718.6825931890617</v>
       </c>
       <c r="AL60" s="4">
-        <f>AK60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>9815.8694191209524</v>
       </c>
       <c r="AM60" s="4">
-        <f>AL60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>9914.0281133121625</v>
       </c>
       <c r="AN60" s="4">
-        <f>AM60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>10013.168394445283</v>
       </c>
       <c r="AO60" s="4">
-        <f>AN60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>10113.300078389737</v>
       </c>
       <c r="AP60" s="4">
-        <f>AO60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>10214.433079173634</v>
       </c>
       <c r="AQ60" s="4">
-        <f>AP60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>10316.57740996537</v>
       </c>
       <c r="AR60" s="4">
-        <f>AQ60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>10419.743184065024</v>
       </c>
       <c r="AS60" s="4">
-        <f>AR60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>10523.940615905674</v>
       </c>
       <c r="AT60" s="4">
-        <f>AS60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>10629.180022064731</v>
       </c>
       <c r="AU60" s="4">
-        <f>AT60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>10735.471822285379</v>
       </c>
       <c r="AV60" s="4">
-        <f>AU60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>10842.826540508233</v>
       </c>
       <c r="AW60" s="4">
-        <f>AV60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>10951.254805913315</v>
       </c>
       <c r="AX60" s="4">
-        <f>AW60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>11060.767353972449</v>
       </c>
       <c r="AY60" s="4">
-        <f>AX60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>11171.375027512173</v>
       </c>
       <c r="AZ60" s="4">
-        <f>AY60*(1+$W$51)</f>
+        <f t="shared" si="54"/>
         <v>11283.088777787294</v>
       </c>
       <c r="BA60" s="4">
-        <f>AZ60*(1+$W$51)</f>
+        <f t="shared" ref="BA60:CF60" si="55">AZ60*(1+$W$51)</f>
         <v>11395.919665565167</v>
       </c>
       <c r="BB60" s="4">
-        <f>BA60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>11509.878862220818</v>
       </c>
       <c r="BC60" s="4">
-        <f>BB60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>11624.977650843026</v>
       </c>
       <c r="BD60" s="4">
-        <f>BC60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>11741.227427351456</v>
       </c>
       <c r="BE60" s="4">
-        <f>BD60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>11858.63970162497</v>
       </c>
       <c r="BF60" s="4">
-        <f>BE60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>11977.22609864122</v>
       </c>
       <c r="BG60" s="4">
-        <f>BF60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>12096.998359627632</v>
       </c>
       <c r="BH60" s="4">
-        <f>BG60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>12217.968343223909</v>
       </c>
       <c r="BI60" s="4">
-        <f>BH60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>12340.148026656148</v>
       </c>
       <c r="BJ60" s="4">
-        <f>BI60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>12463.549506922711</v>
       </c>
       <c r="BK60" s="4">
-        <f>BJ60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>12588.185001991938</v>
       </c>
       <c r="BL60" s="4">
-        <f>BK60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>12714.066852011858</v>
       </c>
       <c r="BM60" s="4">
-        <f>BL60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>12841.207520531976</v>
       </c>
       <c r="BN60" s="4">
-        <f>BM60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>12969.619595737297</v>
       </c>
       <c r="BO60" s="4">
-        <f>BN60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>13099.315791694669</v>
       </c>
       <c r="BP60" s="4">
-        <f>BO60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>13230.308949611615</v>
       </c>
       <c r="BQ60" s="4">
-        <f>BP60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>13362.612039107731</v>
       </c>
       <c r="BR60" s="4">
-        <f>BQ60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>13496.238159498809</v>
       </c>
       <c r="BS60" s="4">
-        <f>BR60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>13631.200541093798</v>
       </c>
       <c r="BT60" s="4">
-        <f>BS60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>13767.512546504737</v>
       </c>
       <c r="BU60" s="4">
-        <f>BT60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>13905.187671969785</v>
       </c>
       <c r="BV60" s="4">
-        <f>BU60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>14044.239548689482</v>
       </c>
       <c r="BW60" s="4">
-        <f>BV60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>14184.681944176376</v>
       </c>
       <c r="BX60" s="4">
-        <f>BW60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>14326.52876361814</v>
       </c>
       <c r="BY60" s="4">
-        <f>BX60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>14469.794051254321</v>
       </c>
       <c r="BZ60" s="4">
-        <f>BY60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>14614.491991766865</v>
       </c>
       <c r="CA60" s="4">
-        <f>BZ60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>14760.636911684534</v>
       </c>
       <c r="CB60" s="4">
-        <f>CA60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>14908.24328080138</v>
       </c>
       <c r="CC60" s="4">
-        <f>CB60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>15057.325713609394</v>
       </c>
       <c r="CD60" s="4">
-        <f>CC60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>15207.898970745489</v>
       </c>
       <c r="CE60" s="4">
-        <f>CD60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>15359.977960452945</v>
       </c>
       <c r="CF60" s="4">
-        <f>CE60*(1+$W$51)</f>
+        <f t="shared" si="55"/>
         <v>15513.577740057475</v>
       </c>
       <c r="CG60" s="4">
-        <f>CF60*(1+$W$51)</f>
+        <f t="shared" ref="CG60:DL60" si="56">CF60*(1+$W$51)</f>
         <v>15668.713517458051</v>
       </c>
       <c r="CH60" s="4">
-        <f>CG60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>15825.400652632632</v>
       </c>
       <c r="CI60" s="4">
-        <f>CH60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>15983.654659158958</v>
       </c>
       <c r="CJ60" s="4">
-        <f>CI60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>16143.491205750548</v>
       </c>
       <c r="CK60" s="4">
-        <f>CJ60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>16304.926117808054</v>
       </c>
       <c r="CL60" s="4">
-        <f>CK60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>16467.975378986135</v>
       </c>
       <c r="CM60" s="4">
-        <f>CL60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>16632.655132775995</v>
       </c>
       <c r="CN60" s="4">
-        <f>CM60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>16798.981684103754</v>
       </c>
       <c r="CO60" s="4">
-        <f>CN60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>16966.97150094479</v>
       </c>
       <c r="CP60" s="4">
-        <f>CO60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>17136.641215954238</v>
       </c>
       <c r="CQ60" s="4">
-        <f>CP60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>17308.007628113781</v>
       </c>
       <c r="CR60" s="4">
-        <f>CQ60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>17481.087704394919</v>
       </c>
       <c r="CS60" s="4">
-        <f>CR60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>17655.898581438869</v>
       </c>
       <c r="CT60" s="4">
-        <f>CS60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>17832.457567253259</v>
       </c>
       <c r="CU60" s="4">
-        <f>CT60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>18010.782142925793</v>
       </c>
       <c r="CV60" s="4">
-        <f>CU60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>18190.88996435505</v>
       </c>
       <c r="CW60" s="4">
-        <f>CV60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>18372.7988639986</v>
       </c>
       <c r="CX60" s="4">
-        <f>CW60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>18556.526852638584</v>
       </c>
       <c r="CY60" s="4">
-        <f>CX60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>18742.092121164969</v>
       </c>
       <c r="CZ60" s="4">
-        <f>CY60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>18929.51304237662</v>
       </c>
       <c r="DA60" s="4">
-        <f>CZ60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>19118.808172800385</v>
       </c>
       <c r="DB60" s="4">
-        <f>DA60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>19309.996254528389</v>
       </c>
       <c r="DC60" s="4">
-        <f>DB60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>19503.096217073671</v>
       </c>
       <c r="DD60" s="4">
-        <f>DC60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>19698.127179244409</v>
       </c>
       <c r="DE60" s="4">
-        <f>DD60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>19895.108451036853</v>
       </c>
       <c r="DF60" s="4">
-        <f>DE60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>20094.059535547221</v>
       </c>
       <c r="DG60" s="4">
-        <f>DF60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>20295.000130902692</v>
       </c>
       <c r="DH60" s="4">
-        <f>DG60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>20497.950132211718</v>
       </c>
       <c r="DI60" s="4">
-        <f>DH60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>20702.929633533837</v>
       </c>
       <c r="DJ60" s="4">
-        <f>DI60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>20909.958929869175</v>
       </c>
       <c r="DK60" s="4">
-        <f>DJ60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>21119.058519167866</v>
       </c>
       <c r="DL60" s="4">
-        <f>DK60*(1+$W$51)</f>
+        <f t="shared" si="56"/>
         <v>21330.249104359544</v>
       </c>
     </row>

--- a/DELL.xlsx
+++ b/DELL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A266E013-203F-48B8-8AAE-C16290C4D768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B495F64-633C-4CD3-BB4B-B472E045B296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="1155" windowWidth="23670" windowHeight="14280" activeTab="1" xr2:uid="{84B91150-D63F-434F-B036-DDB9093FBDB9}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{84B91150-D63F-434F-B036-DDB9093FBDB9}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -250,8 +250,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -296,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -310,6 +311,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -753,7 +755,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -767,7 +769,7 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>111</v>
       </c>
     </row>
@@ -834,10 +836,10 @@
   <dimension ref="A1:DN60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1044,24 +1046,24 @@
         <v>71420</v>
       </c>
       <c r="P10" s="2">
-        <f>O10*1.02</f>
-        <v>72848.399999999994</v>
+        <f>O10*1.05</f>
+        <v>74991</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ref="Q10:T10" si="1">P10*1.02</f>
-        <v>74305.368000000002</v>
+        <v>76490.820000000007</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="1"/>
-        <v>75791.475359999997</v>
+        <v>78020.636400000003</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" si="1"/>
-        <v>77307.3048672</v>
+        <v>79581.049127999999</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" si="1"/>
-        <v>78853.450964543998</v>
+        <v>81172.670110559993</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -1078,24 +1080,24 @@
         <v>24147</v>
       </c>
       <c r="P11" s="2">
-        <f>O11*1.04</f>
-        <v>25112.880000000001</v>
+        <f>O11*1.15</f>
+        <v>27769.05</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" ref="Q11:S11" si="2">P11*1.04</f>
-        <v>26117.395200000003</v>
+        <f>P11*1.04</f>
+        <v>28879.812000000002</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="2"/>
-        <v>27162.091008000003</v>
+        <f t="shared" ref="R11:T11" si="2">Q11*1.04</f>
+        <v>30035.004480000003</v>
       </c>
       <c r="S11" s="2">
         <f t="shared" si="2"/>
-        <v>28248.574648320006</v>
+        <v>31236.404659200005</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" ref="T11" si="3">S11*1.04</f>
-        <v>29378.517634252807</v>
+        <f t="shared" si="2"/>
+        <v>32485.860845568008</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1108,32 +1110,32 @@
         <v>102301</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" ref="N12:O12" si="4">SUM(N10:N11)</f>
+        <f t="shared" ref="N12:O12" si="3">SUM(N10:N11)</f>
         <v>88425</v>
       </c>
       <c r="O12" s="4">
+        <f t="shared" si="3"/>
+        <v>95567</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" ref="P12:Q12" si="4">SUM(P10:P11)</f>
+        <v>102760.05</v>
+      </c>
+      <c r="Q12" s="4">
         <f t="shared" si="4"/>
-        <v>95567</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" ref="P12" si="5">SUM(P10:P11)</f>
-        <v>97961.279999999999</v>
-      </c>
-      <c r="Q12" s="4">
-        <f t="shared" ref="Q12" si="6">SUM(Q10:Q11)</f>
-        <v>100422.7632</v>
+        <v>105370.63200000001</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" ref="R12" si="7">SUM(R10:R11)</f>
-        <v>102953.566368</v>
+        <f t="shared" ref="R12" si="5">SUM(R10:R11)</f>
+        <v>108055.64088000001</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" ref="S12:T12" si="8">SUM(S10:S11)</f>
-        <v>105555.87951552001</v>
+        <f t="shared" ref="S12:T12" si="6">SUM(S10:S11)</f>
+        <v>110817.45378720001</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="8"/>
-        <v>108231.96859879681</v>
+        <f t="shared" si="6"/>
+        <v>113658.530956128</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -1150,24 +1152,24 @@
         <v>60162</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ref="P13:T14" si="9">P10*(1-P35)</f>
-        <v>60828.41399999999</v>
+        <f t="shared" ref="P13:T14" si="7">P10*(1-P35)</f>
+        <v>62242.53</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="9"/>
-        <v>62044.982279999997</v>
+        <f t="shared" si="7"/>
+        <v>63487.380600000004</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="9"/>
-        <v>63285.881925599992</v>
+        <f t="shared" si="7"/>
+        <v>64757.128211999996</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="9"/>
-        <v>64551.599564111995</v>
+        <f t="shared" si="7"/>
+        <v>66052.270776239995</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="9"/>
-        <v>65842.63155539424</v>
+        <f t="shared" si="7"/>
+        <v>67373.316191764796</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -1184,24 +1186,24 @@
         <v>14155</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="9"/>
-        <v>14409.4496</v>
+        <f t="shared" si="7"/>
+        <v>13884.525</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="9"/>
-        <v>14651.88055552</v>
+        <f t="shared" si="7"/>
+        <v>14439.906000000001</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="9"/>
-        <v>14880.231720833024</v>
+        <f t="shared" si="7"/>
+        <v>15017.502240000002</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="9"/>
-        <v>15092.246979906737</v>
+        <f t="shared" si="7"/>
+        <v>15618.202329600002</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="9"/>
-        <v>15285.459435848512</v>
+        <f t="shared" si="7"/>
+        <v>16242.930422784004</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -1213,32 +1215,32 @@
         <v>13221</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" ref="N15:O15" si="10">N10-N13</f>
+        <f t="shared" ref="N15:O15" si="8">N10-N13</f>
         <v>11237</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>11258</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" ref="P15:S15" si="11">P10-P13</f>
-        <v>12019.986000000004</v>
+        <f t="shared" ref="P15:S15" si="9">P10-P13</f>
+        <v>12748.470000000001</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="11"/>
-        <v>12260.385720000006</v>
+        <f t="shared" si="9"/>
+        <v>13003.439400000003</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="11"/>
-        <v>12505.593434400005</v>
+        <f t="shared" si="9"/>
+        <v>13263.508188000007</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="11"/>
-        <v>12755.705303088005</v>
+        <f t="shared" si="9"/>
+        <v>13528.778351760004</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" ref="T15" si="12">T10-T13</f>
-        <v>13010.819409149757</v>
+        <f t="shared" ref="T15" si="10">T10-T13</f>
+        <v>13799.353918795197</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -1250,32 +1252,32 @@
         <v>9465</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" ref="N16:O16" si="13">N11-N14</f>
+        <f t="shared" ref="N16:O16" si="11">N11-N14</f>
         <v>9832</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>9992</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" ref="P16:S16" si="14">P11-P14</f>
-        <v>10703.430400000001</v>
+        <f t="shared" ref="P16:S16" si="12">P11-P14</f>
+        <v>13884.525</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="14"/>
-        <v>11465.514644480003</v>
+        <f t="shared" si="12"/>
+        <v>14439.906000000001</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="14"/>
-        <v>12281.859287166979</v>
+        <f t="shared" si="12"/>
+        <v>15017.502240000002</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="14"/>
-        <v>13156.327668413269</v>
+        <f t="shared" si="12"/>
+        <v>15618.202329600002</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" ref="T16" si="15">T11-T14</f>
-        <v>14093.058198404295</v>
+        <f t="shared" ref="T16" si="13">T11-T14</f>
+        <v>16242.930422784004</v>
       </c>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.2">
@@ -1315,32 +1317,32 @@
         <v>16915</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" ref="N19:O19" si="16">SUM(N17:N18)</f>
+        <f t="shared" ref="N19:O19" si="14">SUM(N17:N18)</f>
         <v>15658</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>15013</v>
       </c>
       <c r="P19" s="2">
         <f>P12*P37</f>
-        <v>16653.417600000001</v>
+        <v>17469.208500000001</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="Q19:S19" si="17">Q12*Q37</f>
-        <v>17071.869744</v>
+        <f t="shared" ref="Q19:S19" si="15">Q12*Q37</f>
+        <v>17913.007440000005</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="17"/>
-        <v>17502.106282560002</v>
+        <f t="shared" si="15"/>
+        <v>18369.458949600001</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="17"/>
-        <v>17944.499517638404</v>
+        <f t="shared" si="15"/>
+        <v>18838.967143824004</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" ref="T19" si="18">T12*T37</f>
-        <v>18399.434661795458</v>
+        <f t="shared" ref="T19" si="16">T12*T37</f>
+        <v>19321.950262541763</v>
       </c>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.2">
@@ -1352,32 +1354,32 @@
         <v>5771</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" ref="N20:T20" si="19">SUM(N15:N16)-N19</f>
+        <f t="shared" ref="N20:T20" si="17">SUM(N15:N16)-N19</f>
         <v>5411</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6237</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="19"/>
-        <v>6069.9988000000048</v>
+        <f t="shared" si="17"/>
+        <v>9163.786500000002</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="19"/>
-        <v>6654.0306204800108</v>
+        <f t="shared" si="17"/>
+        <v>9530.3379600000007</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="19"/>
-        <v>7285.3464390069821</v>
+        <f t="shared" si="17"/>
+        <v>9911.5514784000079</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="19"/>
-        <v>7967.5334538628704</v>
+        <f t="shared" si="17"/>
+        <v>10308.013537536004</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="19"/>
-        <v>8704.4429457585939</v>
+        <f t="shared" si="17"/>
+        <v>10720.334079037439</v>
       </c>
     </row>
     <row r="21" spans="1:118" x14ac:dyDescent="0.2">
@@ -1395,23 +1397,23 @@
       </c>
       <c r="P21" s="2">
         <f>O39*$W$50</f>
-        <v>-1858.3799999999999</v>
+        <v>-1238.92</v>
       </c>
       <c r="Q21" s="2">
         <f>P39*$W$50</f>
-        <v>-1653.6953263199996</v>
+        <v>-982.15432539999995</v>
       </c>
       <c r="R21" s="2">
         <f>Q39*$W$50</f>
-        <v>-1410.679031023823</v>
+        <v>-705.19317563895993</v>
       </c>
       <c r="S21" s="2">
         <f>R39*$W$50</f>
-        <v>-1125.1701949958415</v>
+        <v>-406.90716662950206</v>
       </c>
       <c r="T21" s="2">
         <f>S39*$W$50</f>
-        <v>-792.63134061490393</v>
+        <v>-86.111320212131361</v>
       </c>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.2">
@@ -1423,32 +1425,32 @@
         <v>3225</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" ref="N22:T22" si="20">N20+N21</f>
+        <f t="shared" ref="N22:T22" si="18">N20+N21</f>
         <v>4087</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>5048</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="20"/>
-        <v>4211.6188000000047</v>
+        <f t="shared" si="18"/>
+        <v>7924.8665000000019</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="20"/>
-        <v>5000.3352941600115</v>
+        <f t="shared" si="18"/>
+        <v>8548.1836346</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="20"/>
-        <v>5874.6674079831591</v>
+        <f t="shared" si="18"/>
+        <v>9206.3583027610475</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="20"/>
-        <v>6842.3632588670289</v>
+        <f t="shared" si="18"/>
+        <v>9901.106370906502</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="20"/>
-        <v>7911.81160514369</v>
+        <f t="shared" si="18"/>
+        <v>10634.222758825308</v>
       </c>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.2">
@@ -1466,23 +1468,23 @@
       </c>
       <c r="P23" s="2">
         <f>P22*P32</f>
-        <v>800.20757200000094</v>
+        <v>1505.7246350000005</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" ref="Q23:T23" si="21">Q22*Q32</f>
-        <v>950.06370589040216</v>
+        <f t="shared" ref="Q23:T23" si="19">Q22*Q32</f>
+        <v>1624.1548905740001</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="21"/>
-        <v>1116.1868075168002</v>
+        <f t="shared" si="19"/>
+        <v>1749.208077524599</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="21"/>
-        <v>1300.0490191847355</v>
+        <f t="shared" si="19"/>
+        <v>1881.2102104722353</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="21"/>
-        <v>1503.244204977301</v>
+        <f t="shared" si="19"/>
+        <v>2020.5023241768085</v>
       </c>
     </row>
     <row r="24" spans="1:118" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1495,424 +1497,424 @@
         <v>2422</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" ref="N24:T24" si="22">N22-N23</f>
+        <f t="shared" ref="N24:T24" si="20">N22-N23</f>
         <v>3372</v>
       </c>
       <c r="O24" s="4">
+        <f t="shared" si="20"/>
+        <v>4576</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="20"/>
+        <v>6419.1418650000014</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="20"/>
+        <v>6924.0287440259999</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="20"/>
+        <v>7457.150225236448</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="20"/>
+        <v>8019.8961604342667</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="20"/>
+        <v>8613.7204346484996</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" ref="U24:AZ24" si="21">T24*(1+$W$51)</f>
+        <v>8699.8576389949849</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="21"/>
+        <v>8786.8562153849343</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="21"/>
+        <v>8874.7247775387841</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="21"/>
+        <v>8963.4720253141713</v>
+      </c>
+      <c r="Y24" s="4">
+        <f t="shared" si="21"/>
+        <v>9053.1067455673128</v>
+      </c>
+      <c r="Z24" s="4">
+        <f t="shared" si="21"/>
+        <v>9143.6378130229859</v>
+      </c>
+      <c r="AA24" s="4">
+        <f t="shared" si="21"/>
+        <v>9235.074191153215</v>
+      </c>
+      <c r="AB24" s="4">
+        <f t="shared" si="21"/>
+        <v>9327.4249330647472</v>
+      </c>
+      <c r="AC24" s="4">
+        <f t="shared" si="21"/>
+        <v>9420.699182395394</v>
+      </c>
+      <c r="AD24" s="4">
+        <f t="shared" si="21"/>
+        <v>9514.906174219348</v>
+      </c>
+      <c r="AE24" s="4">
+        <f t="shared" si="21"/>
+        <v>9610.0552359615413</v>
+      </c>
+      <c r="AF24" s="4">
+        <f t="shared" si="21"/>
+        <v>9706.1557883211572</v>
+      </c>
+      <c r="AG24" s="4">
+        <f t="shared" si="21"/>
+        <v>9803.2173462043684</v>
+      </c>
+      <c r="AH24" s="4">
+        <f t="shared" si="21"/>
+        <v>9901.2495196664113</v>
+      </c>
+      <c r="AI24" s="4">
+        <f t="shared" si="21"/>
+        <v>10000.262014863076</v>
+      </c>
+      <c r="AJ24" s="4">
+        <f t="shared" si="21"/>
+        <v>10100.264635011707</v>
+      </c>
+      <c r="AK24" s="4">
+        <f t="shared" si="21"/>
+        <v>10201.267281361823</v>
+      </c>
+      <c r="AL24" s="4">
+        <f t="shared" si="21"/>
+        <v>10303.279954175441</v>
+      </c>
+      <c r="AM24" s="4">
+        <f t="shared" si="21"/>
+        <v>10406.312753717195</v>
+      </c>
+      <c r="AN24" s="4">
+        <f t="shared" si="21"/>
+        <v>10510.375881254367</v>
+      </c>
+      <c r="AO24" s="4">
+        <f t="shared" si="21"/>
+        <v>10615.479640066911</v>
+      </c>
+      <c r="AP24" s="4">
+        <f t="shared" si="21"/>
+        <v>10721.634436467581</v>
+      </c>
+      <c r="AQ24" s="4">
+        <f t="shared" si="21"/>
+        <v>10828.850780832256</v>
+      </c>
+      <c r="AR24" s="4">
+        <f t="shared" si="21"/>
+        <v>10937.139288640577</v>
+      </c>
+      <c r="AS24" s="4">
+        <f t="shared" si="21"/>
+        <v>11046.510681526983</v>
+      </c>
+      <c r="AT24" s="4">
+        <f t="shared" si="21"/>
+        <v>11156.975788342254</v>
+      </c>
+      <c r="AU24" s="4">
+        <f t="shared" si="21"/>
+        <v>11268.545546225676</v>
+      </c>
+      <c r="AV24" s="4">
+        <f t="shared" si="21"/>
+        <v>11381.231001687933</v>
+      </c>
+      <c r="AW24" s="4">
+        <f t="shared" si="21"/>
+        <v>11495.043311704812</v>
+      </c>
+      <c r="AX24" s="4">
+        <f t="shared" si="21"/>
+        <v>11609.993744821861</v>
+      </c>
+      <c r="AY24" s="4">
+        <f t="shared" si="21"/>
+        <v>11726.093682270079</v>
+      </c>
+      <c r="AZ24" s="4">
+        <f t="shared" si="21"/>
+        <v>11843.354619092779</v>
+      </c>
+      <c r="BA24" s="4">
+        <f t="shared" ref="BA24:CF24" si="22">AZ24*(1+$W$51)</f>
+        <v>11961.788165283708</v>
+      </c>
+      <c r="BB24" s="4">
         <f t="shared" si="22"/>
-        <v>4576</v>
-      </c>
-      <c r="P24" s="4">
+        <v>12081.406046936545</v>
+      </c>
+      <c r="BC24" s="4">
         <f t="shared" si="22"/>
-        <v>3411.4112280000036</v>
-      </c>
-      <c r="Q24" s="4">
+        <v>12202.22010740591</v>
+      </c>
+      <c r="BD24" s="4">
         <f t="shared" si="22"/>
-        <v>4050.2715882696093</v>
-      </c>
-      <c r="R24" s="4">
+        <v>12324.24230847997</v>
+      </c>
+      <c r="BE24" s="4">
         <f t="shared" si="22"/>
-        <v>4758.4806004663587</v>
-      </c>
-      <c r="S24" s="4">
+        <v>12447.484731564769</v>
+      </c>
+      <c r="BF24" s="4">
         <f t="shared" si="22"/>
-        <v>5542.3142396822932</v>
-      </c>
-      <c r="T24" s="4">
+        <v>12571.959578880416</v>
+      </c>
+      <c r="BG24" s="4">
         <f t="shared" si="22"/>
-        <v>6408.5674001663892</v>
-      </c>
-      <c r="U24" s="4">
-        <f t="shared" ref="U24:AZ24" si="23">T24*(1+$W$51)</f>
-        <v>6472.6530741680535</v>
-      </c>
-      <c r="V24" s="4">
+        <v>12697.67917466922</v>
+      </c>
+      <c r="BH24" s="4">
+        <f t="shared" si="22"/>
+        <v>12824.655966415912</v>
+      </c>
+      <c r="BI24" s="4">
+        <f t="shared" si="22"/>
+        <v>12952.902526080072</v>
+      </c>
+      <c r="BJ24" s="4">
+        <f t="shared" si="22"/>
+        <v>13082.431551340873</v>
+      </c>
+      <c r="BK24" s="4">
+        <f t="shared" si="22"/>
+        <v>13213.255866854282</v>
+      </c>
+      <c r="BL24" s="4">
+        <f t="shared" si="22"/>
+        <v>13345.388425522826</v>
+      </c>
+      <c r="BM24" s="4">
+        <f t="shared" si="22"/>
+        <v>13478.842309778054</v>
+      </c>
+      <c r="BN24" s="4">
+        <f t="shared" si="22"/>
+        <v>13613.630732875836</v>
+      </c>
+      <c r="BO24" s="4">
+        <f t="shared" si="22"/>
+        <v>13749.767040204595</v>
+      </c>
+      <c r="BP24" s="4">
+        <f t="shared" si="22"/>
+        <v>13887.264710606642</v>
+      </c>
+      <c r="BQ24" s="4">
+        <f t="shared" si="22"/>
+        <v>14026.137357712709</v>
+      </c>
+      <c r="BR24" s="4">
+        <f t="shared" si="22"/>
+        <v>14166.398731289835</v>
+      </c>
+      <c r="BS24" s="4">
+        <f t="shared" si="22"/>
+        <v>14308.062718602734</v>
+      </c>
+      <c r="BT24" s="4">
+        <f t="shared" si="22"/>
+        <v>14451.143345788762</v>
+      </c>
+      <c r="BU24" s="4">
+        <f t="shared" si="22"/>
+        <v>14595.65477924665</v>
+      </c>
+      <c r="BV24" s="4">
+        <f t="shared" si="22"/>
+        <v>14741.611327039116</v>
+      </c>
+      <c r="BW24" s="4">
+        <f t="shared" si="22"/>
+        <v>14889.027440309508</v>
+      </c>
+      <c r="BX24" s="4">
+        <f t="shared" si="22"/>
+        <v>15037.917714712603</v>
+      </c>
+      <c r="BY24" s="4">
+        <f t="shared" si="22"/>
+        <v>15188.296891859729</v>
+      </c>
+      <c r="BZ24" s="4">
+        <f t="shared" si="22"/>
+        <v>15340.179860778326</v>
+      </c>
+      <c r="CA24" s="4">
+        <f t="shared" si="22"/>
+        <v>15493.581659386109</v>
+      </c>
+      <c r="CB24" s="4">
+        <f t="shared" si="22"/>
+        <v>15648.51747597997</v>
+      </c>
+      <c r="CC24" s="4">
+        <f t="shared" si="22"/>
+        <v>15805.002650739771</v>
+      </c>
+      <c r="CD24" s="4">
+        <f t="shared" si="22"/>
+        <v>15963.052677247168</v>
+      </c>
+      <c r="CE24" s="4">
+        <f t="shared" si="22"/>
+        <v>16122.683204019639</v>
+      </c>
+      <c r="CF24" s="4">
+        <f t="shared" si="22"/>
+        <v>16283.910036059835</v>
+      </c>
+      <c r="CG24" s="4">
+        <f t="shared" ref="CG24:DN24" si="23">CF24*(1+$W$51)</f>
+        <v>16446.749136420432</v>
+      </c>
+      <c r="CH24" s="4">
         <f t="shared" si="23"/>
-        <v>6537.3796049097346</v>
-      </c>
-      <c r="W24" s="4">
+        <v>16611.216627784637</v>
+      </c>
+      <c r="CI24" s="4">
         <f t="shared" si="23"/>
-        <v>6602.7534009588317</v>
-      </c>
-      <c r="X24" s="4">
+        <v>16777.328794062483</v>
+      </c>
+      <c r="CJ24" s="4">
         <f t="shared" si="23"/>
-        <v>6668.7809349684203</v>
-      </c>
-      <c r="Y24" s="4">
+        <v>16945.102082003108</v>
+      </c>
+      <c r="CK24" s="4">
         <f t="shared" si="23"/>
-        <v>6735.4687443181047</v>
-      </c>
-      <c r="Z24" s="4">
+        <v>17114.553102823138</v>
+      </c>
+      <c r="CL24" s="4">
         <f t="shared" si="23"/>
-        <v>6802.823431761286</v>
-      </c>
-      <c r="AA24" s="4">
+        <v>17285.698633851371</v>
+      </c>
+      <c r="CM24" s="4">
         <f t="shared" si="23"/>
-        <v>6870.8516660788991</v>
-      </c>
-      <c r="AB24" s="4">
+        <v>17458.555620189883</v>
+      </c>
+      <c r="CN24" s="4">
         <f t="shared" si="23"/>
-        <v>6939.5601827396886</v>
-      </c>
-      <c r="AC24" s="4">
+        <v>17633.141176391782</v>
+      </c>
+      <c r="CO24" s="4">
         <f t="shared" si="23"/>
-        <v>7008.9557845670852</v>
-      </c>
-      <c r="AD24" s="4">
+        <v>17809.472588155699</v>
+      </c>
+      <c r="CP24" s="4">
         <f t="shared" si="23"/>
-        <v>7079.0453424127563</v>
-      </c>
-      <c r="AE24" s="4">
+        <v>17987.567314037256</v>
+      </c>
+      <c r="CQ24" s="4">
         <f t="shared" si="23"/>
-        <v>7149.8357958368842</v>
-      </c>
-      <c r="AF24" s="4">
+        <v>18167.44298717763</v>
+      </c>
+      <c r="CR24" s="4">
         <f t="shared" si="23"/>
-        <v>7221.3341537952529</v>
-      </c>
-      <c r="AG24" s="4">
+        <v>18349.117417049405</v>
+      </c>
+      <c r="CS24" s="4">
         <f t="shared" si="23"/>
-        <v>7293.547495333205</v>
-      </c>
-      <c r="AH24" s="4">
+        <v>18532.608591219898</v>
+      </c>
+      <c r="CT24" s="4">
         <f t="shared" si="23"/>
-        <v>7366.4829702865372</v>
-      </c>
-      <c r="AI24" s="4">
+        <v>18717.934677132096</v>
+      </c>
+      <c r="CU24" s="4">
         <f t="shared" si="23"/>
-        <v>7440.1477999894023</v>
-      </c>
-      <c r="AJ24" s="4">
+        <v>18905.114023903418</v>
+      </c>
+      <c r="CV24" s="4">
         <f t="shared" si="23"/>
-        <v>7514.5492779892966</v>
-      </c>
-      <c r="AK24" s="4">
+        <v>19094.165164142451</v>
+      </c>
+      <c r="CW24" s="4">
         <f t="shared" si="23"/>
-        <v>7589.6947707691897</v>
-      </c>
-      <c r="AL24" s="4">
+        <v>19285.106815783874</v>
+      </c>
+      <c r="CX24" s="4">
         <f t="shared" si="23"/>
-        <v>7665.5917184768814</v>
-      </c>
-      <c r="AM24" s="4">
+        <v>19477.957883941712</v>
+      </c>
+      <c r="CY24" s="4">
         <f t="shared" si="23"/>
-        <v>7742.2476356616498</v>
-      </c>
-      <c r="AN24" s="4">
+        <v>19672.73746278113</v>
+      </c>
+      <c r="CZ24" s="4">
         <f t="shared" si="23"/>
-        <v>7819.6701120182661</v>
-      </c>
-      <c r="AO24" s="4">
+        <v>19869.464837408941</v>
+      </c>
+      <c r="DA24" s="4">
         <f t="shared" si="23"/>
-        <v>7897.8668131384484</v>
-      </c>
-      <c r="AP24" s="4">
+        <v>20068.159485783031</v>
+      </c>
+      <c r="DB24" s="4">
         <f t="shared" si="23"/>
-        <v>7976.8454812698328</v>
-      </c>
-      <c r="AQ24" s="4">
+        <v>20268.841080640861</v>
+      </c>
+      <c r="DC24" s="4">
         <f t="shared" si="23"/>
-        <v>8056.6139360825309</v>
-      </c>
-      <c r="AR24" s="4">
+        <v>20471.529491447269</v>
+      </c>
+      <c r="DD24" s="4">
         <f t="shared" si="23"/>
-        <v>8137.1800754433561</v>
-      </c>
-      <c r="AS24" s="4">
+        <v>20676.244786361742</v>
+      </c>
+      <c r="DE24" s="4">
         <f t="shared" si="23"/>
-        <v>8218.5518761977892</v>
-      </c>
-      <c r="AT24" s="4">
+        <v>20883.007234225359</v>
+      </c>
+      <c r="DF24" s="4">
         <f t="shared" si="23"/>
-        <v>8300.7373949597677</v>
-      </c>
-      <c r="AU24" s="4">
+        <v>21091.837306567613</v>
+      </c>
+      <c r="DG24" s="4">
         <f t="shared" si="23"/>
-        <v>8383.744768909366</v>
-      </c>
-      <c r="AV24" s="4">
+        <v>21302.75567963329</v>
+      </c>
+      <c r="DH24" s="4">
         <f t="shared" si="23"/>
-        <v>8467.5822165984591</v>
-      </c>
-      <c r="AW24" s="4">
+        <v>21515.783236429623</v>
+      </c>
+      <c r="DI24" s="4">
         <f t="shared" si="23"/>
-        <v>8552.258038764443</v>
-      </c>
-      <c r="AX24" s="4">
+        <v>21730.94106879392</v>
+      </c>
+      <c r="DJ24" s="4">
         <f t="shared" si="23"/>
-        <v>8637.7806191520867</v>
-      </c>
-      <c r="AY24" s="4">
+        <v>21948.25047948186</v>
+      </c>
+      <c r="DK24" s="4">
         <f t="shared" si="23"/>
-        <v>8724.1584253436085</v>
-      </c>
-      <c r="AZ24" s="4">
+        <v>22167.732984276678</v>
+      </c>
+      <c r="DL24" s="4">
         <f t="shared" si="23"/>
-        <v>8811.4000095970441</v>
-      </c>
-      <c r="BA24" s="4">
-        <f t="shared" ref="BA24:CF24" si="24">AZ24*(1+$W$51)</f>
-        <v>8899.5140096930154</v>
-      </c>
-      <c r="BB24" s="4">
-        <f t="shared" si="24"/>
-        <v>8988.5091497899448</v>
-      </c>
-      <c r="BC24" s="4">
-        <f t="shared" si="24"/>
-        <v>9078.3942412878441</v>
-      </c>
-      <c r="BD24" s="4">
-        <f t="shared" si="24"/>
-        <v>9169.178183700722</v>
-      </c>
-      <c r="BE24" s="4">
-        <f t="shared" si="24"/>
-        <v>9260.8699655377295</v>
-      </c>
-      <c r="BF24" s="4">
-        <f t="shared" si="24"/>
-        <v>9353.4786651931063</v>
-      </c>
-      <c r="BG24" s="4">
-        <f t="shared" si="24"/>
-        <v>9447.0134518450377</v>
-      </c>
-      <c r="BH24" s="4">
-        <f t="shared" si="24"/>
-        <v>9541.4835863634889</v>
-      </c>
-      <c r="BI24" s="4">
-        <f t="shared" si="24"/>
-        <v>9636.8984222271247</v>
-      </c>
-      <c r="BJ24" s="4">
-        <f t="shared" si="24"/>
-        <v>9733.2674064493967</v>
-      </c>
-      <c r="BK24" s="4">
-        <f t="shared" si="24"/>
-        <v>9830.6000805138901</v>
-      </c>
-      <c r="BL24" s="4">
-        <f t="shared" si="24"/>
-        <v>9928.9060813190299</v>
-      </c>
-      <c r="BM24" s="4">
-        <f t="shared" si="24"/>
-        <v>10028.195142132221</v>
-      </c>
-      <c r="BN24" s="4">
-        <f t="shared" si="24"/>
-        <v>10128.477093553543</v>
-      </c>
-      <c r="BO24" s="4">
-        <f t="shared" si="24"/>
-        <v>10229.761864489079</v>
-      </c>
-      <c r="BP24" s="4">
-        <f t="shared" si="24"/>
-        <v>10332.059483133969</v>
-      </c>
-      <c r="BQ24" s="4">
-        <f t="shared" si="24"/>
-        <v>10435.380077965308</v>
-      </c>
-      <c r="BR24" s="4">
-        <f t="shared" si="24"/>
-        <v>10539.733878744961</v>
-      </c>
-      <c r="BS24" s="4">
-        <f t="shared" si="24"/>
-        <v>10645.131217532411</v>
-      </c>
-      <c r="BT24" s="4">
-        <f t="shared" si="24"/>
-        <v>10751.582529707735</v>
-      </c>
-      <c r="BU24" s="4">
-        <f t="shared" si="24"/>
-        <v>10859.098355004813</v>
-      </c>
-      <c r="BV24" s="4">
-        <f t="shared" si="24"/>
-        <v>10967.689338554861</v>
-      </c>
-      <c r="BW24" s="4">
-        <f t="shared" si="24"/>
-        <v>11077.36623194041</v>
-      </c>
-      <c r="BX24" s="4">
-        <f t="shared" si="24"/>
-        <v>11188.139894259815</v>
-      </c>
-      <c r="BY24" s="4">
-        <f t="shared" si="24"/>
-        <v>11300.021293202413</v>
-      </c>
-      <c r="BZ24" s="4">
-        <f t="shared" si="24"/>
-        <v>11413.021506134437</v>
-      </c>
-      <c r="CA24" s="4">
-        <f t="shared" si="24"/>
-        <v>11527.151721195782</v>
-      </c>
-      <c r="CB24" s="4">
-        <f t="shared" si="24"/>
-        <v>11642.42323840774</v>
-      </c>
-      <c r="CC24" s="4">
-        <f t="shared" si="24"/>
-        <v>11758.847470791818</v>
-      </c>
-      <c r="CD24" s="4">
-        <f t="shared" si="24"/>
-        <v>11876.435945499736</v>
-      </c>
-      <c r="CE24" s="4">
-        <f t="shared" si="24"/>
-        <v>11995.200304954733</v>
-      </c>
-      <c r="CF24" s="4">
-        <f t="shared" si="24"/>
-        <v>12115.152308004281</v>
-      </c>
-      <c r="CG24" s="4">
-        <f t="shared" ref="CG24:DN24" si="25">CF24*(1+$W$51)</f>
-        <v>12236.303831084324</v>
-      </c>
-      <c r="CH24" s="4">
-        <f t="shared" si="25"/>
-        <v>12358.666869395167</v>
-      </c>
-      <c r="CI24" s="4">
-        <f t="shared" si="25"/>
-        <v>12482.253538089119</v>
-      </c>
-      <c r="CJ24" s="4">
-        <f t="shared" si="25"/>
-        <v>12607.076073470011</v>
-      </c>
-      <c r="CK24" s="4">
-        <f t="shared" si="25"/>
-        <v>12733.14683420471</v>
-      </c>
-      <c r="CL24" s="4">
-        <f t="shared" si="25"/>
-        <v>12860.478302546757</v>
-      </c>
-      <c r="CM24" s="4">
-        <f t="shared" si="25"/>
-        <v>12989.083085572225</v>
-      </c>
-      <c r="CN24" s="4">
-        <f t="shared" si="25"/>
-        <v>13118.973916427947</v>
-      </c>
-      <c r="CO24" s="4">
-        <f t="shared" si="25"/>
-        <v>13250.163655592227</v>
-      </c>
-      <c r="CP24" s="4">
-        <f t="shared" si="25"/>
-        <v>13382.665292148149</v>
-      </c>
-      <c r="CQ24" s="4">
-        <f t="shared" si="25"/>
-        <v>13516.491945069631</v>
-      </c>
-      <c r="CR24" s="4">
-        <f t="shared" si="25"/>
-        <v>13651.656864520328</v>
-      </c>
-      <c r="CS24" s="4">
-        <f t="shared" si="25"/>
-        <v>13788.173433165532</v>
-      </c>
-      <c r="CT24" s="4">
-        <f t="shared" si="25"/>
-        <v>13926.055167497187</v>
-      </c>
-      <c r="CU24" s="4">
-        <f t="shared" si="25"/>
-        <v>14065.315719172158</v>
-      </c>
-      <c r="CV24" s="4">
-        <f t="shared" si="25"/>
-        <v>14205.968876363881</v>
-      </c>
-      <c r="CW24" s="4">
-        <f t="shared" si="25"/>
-        <v>14348.028565127519</v>
-      </c>
-      <c r="CX24" s="4">
-        <f t="shared" si="25"/>
-        <v>14491.508850778795</v>
-      </c>
-      <c r="CY24" s="4">
-        <f t="shared" si="25"/>
-        <v>14636.423939286584</v>
-      </c>
-      <c r="CZ24" s="4">
-        <f t="shared" si="25"/>
-        <v>14782.78817867945</v>
-      </c>
-      <c r="DA24" s="4">
-        <f t="shared" si="25"/>
-        <v>14930.616060466244</v>
-      </c>
-      <c r="DB24" s="4">
-        <f t="shared" si="25"/>
-        <v>15079.922221070907</v>
-      </c>
-      <c r="DC24" s="4">
-        <f t="shared" si="25"/>
-        <v>15230.721443281616</v>
-      </c>
-      <c r="DD24" s="4">
-        <f t="shared" si="25"/>
-        <v>15383.028657714432</v>
-      </c>
-      <c r="DE24" s="4">
-        <f t="shared" si="25"/>
-        <v>15536.858944291576</v>
-      </c>
-      <c r="DF24" s="4">
-        <f t="shared" si="25"/>
-        <v>15692.227533734493</v>
-      </c>
-      <c r="DG24" s="4">
-        <f t="shared" si="25"/>
-        <v>15849.149809071838</v>
-      </c>
-      <c r="DH24" s="4">
-        <f t="shared" si="25"/>
-        <v>16007.641307162556</v>
-      </c>
-      <c r="DI24" s="4">
-        <f t="shared" si="25"/>
-        <v>16167.717720234181</v>
-      </c>
-      <c r="DJ24" s="4">
-        <f t="shared" si="25"/>
-        <v>16329.394897436523</v>
-      </c>
-      <c r="DK24" s="4">
-        <f t="shared" si="25"/>
-        <v>16492.688846410889</v>
-      </c>
-      <c r="DL24" s="4">
-        <f t="shared" si="25"/>
-        <v>16657.615734874998</v>
+        <v>22389.410314119443</v>
       </c>
       <c r="DM24" s="4">
-        <f t="shared" si="25"/>
-        <v>16824.191892223749</v>
+        <f t="shared" si="23"/>
+        <v>22613.304417260639</v>
       </c>
       <c r="DN24" s="4">
-        <f t="shared" si="25"/>
-        <v>16992.433811145987</v>
+        <f t="shared" si="23"/>
+        <v>22839.437461433245</v>
       </c>
     </row>
     <row r="25" spans="1:118" x14ac:dyDescent="0.2">
@@ -1930,23 +1932,23 @@
       </c>
       <c r="P25" s="7">
         <f>P24/P26</f>
-        <v>4.8885236116890898</v>
+        <v>9.1985763300168202</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" ref="Q25:T25" si="26">Q24/Q26</f>
-        <v>5.8040051373746131</v>
+        <f t="shared" ref="Q25:T25" si="24">Q24/Q26</f>
+        <v>9.9220749833285762</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="26"/>
-        <v>6.8188626982921594</v>
+        <f t="shared" si="24"/>
+        <v>10.686033584216412</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" si="26"/>
-        <v>7.9420897139896285</v>
+        <f t="shared" si="24"/>
+        <v>11.492443778630122</v>
       </c>
       <c r="T25" s="7">
-        <f t="shared" si="26"/>
-        <v>9.1834232108045128</v>
+        <f t="shared" si="24"/>
+        <v>12.343388971594237</v>
       </c>
     </row>
     <row r="26" spans="1:118" x14ac:dyDescent="0.2">
@@ -1971,6 +1973,9 @@
       <c r="T26" s="2">
         <v>697.84079999999994</v>
       </c>
+    </row>
+    <row r="27" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="P27" s="13"/>
     </row>
     <row r="28" spans="1:118" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -1986,24 +1991,24 @@
         <v>8.0769013288097158E-2</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" ref="P28:S28" si="27">P12/O12-1</f>
-        <v>2.5053418020865026E-2</v>
+        <f t="shared" ref="P28:S28" si="25">P12/O12-1</f>
+        <v>7.5267090104324641E-2</v>
       </c>
       <c r="Q28" s="8">
-        <f t="shared" si="27"/>
-        <v>2.5127103279989793E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.540463925426284E-2</v>
       </c>
       <c r="R28" s="8">
-        <f t="shared" si="27"/>
-        <v>2.520148905840891E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.5481567577577025E-2</v>
       </c>
       <c r="S28" s="8">
-        <f t="shared" si="27"/>
-        <v>2.5276571170135265E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.5559173817377046E-2</v>
       </c>
       <c r="T28" s="8">
-        <f t="shared" ref="T28" si="28">T12/S12-1</f>
-        <v>2.5352345085460914E-2</v>
+        <f t="shared" ref="T28" si="26">T12/S12-1</f>
+        <v>2.5637452150666151E-2</v>
       </c>
     </row>
     <row r="29" spans="1:118" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2020,23 +2025,23 @@
         <v>0.10981617018631606</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" ref="P29:S29" si="29">P10/O10-1</f>
+        <f t="shared" ref="P29:S29" si="27">P10/O10-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Q29" s="8">
+        <f t="shared" si="27"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="Q29" s="8">
-        <f t="shared" si="29"/>
+      <c r="R29" s="8">
+        <f t="shared" si="27"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="R29" s="8">
-        <f t="shared" si="29"/>
+      <c r="S29" s="8">
+        <f t="shared" si="27"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="S29" s="8">
-        <f t="shared" si="29"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
       <c r="T29" s="8">
-        <f t="shared" ref="T29" si="30">T10/S10-1</f>
+        <f t="shared" ref="T29" si="28">T10/S10-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -2054,23 +2059,23 @@
         <v>3.1156530408773531E-3</v>
       </c>
       <c r="P30" s="8">
-        <f t="shared" ref="P30:S30" si="31">P11/O11-1</f>
+        <f t="shared" ref="P30:S30" si="29">P11/O11-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" si="29"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Q30" s="8">
-        <f t="shared" si="31"/>
+      <c r="R30" s="8">
+        <f t="shared" si="29"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="R30" s="8">
-        <f t="shared" si="31"/>
+      <c r="S30" s="8">
+        <f t="shared" si="29"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="S30" s="8">
-        <f t="shared" si="31"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
       <c r="T30" s="8">
-        <f t="shared" ref="T30" si="32">T11/S11-1</f>
+        <f t="shared" ref="T30" si="30">T11/S11-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
@@ -2085,23 +2090,23 @@
         <v>0.53971856559237397</v>
       </c>
       <c r="P31" s="8">
-        <f t="shared" ref="P31:T31" si="33">P2/O2-1</f>
+        <f t="shared" ref="P31:T31" si="31">P2/O2-1</f>
         <v>-1</v>
       </c>
       <c r="Q31" s="8" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="8" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="8" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="8" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2114,11 +2119,11 @@
         <v>0.2489922480620155</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" ref="N32:O32" si="34">N23/N22</f>
+        <f t="shared" ref="N32:O32" si="32">N23/N22</f>
         <v>0.17494494739417665</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>9.3502377179080817E-2</v>
       </c>
       <c r="P32" s="6">
@@ -2142,36 +2147,36 @@
         <v>39</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" ref="M34:T34" si="35">SUM(M15:M16)/M12</f>
+        <f t="shared" ref="M34:T34" si="33">SUM(M15:M16)/M12</f>
         <v>0.22175736307562977</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0.23826972010178116</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0.22235708979040883</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="35"/>
-        <v>0.23196324506988888</v>
+        <f t="shared" si="33"/>
+        <v>0.25917654769533494</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="35"/>
-        <v>0.23626018253678177</v>
+        <f t="shared" si="33"/>
+        <v>0.26044586503002093</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="35"/>
-        <v>0.24076341982137894</v>
+        <f t="shared" si="33"/>
+        <v>0.26172636798672244</v>
       </c>
       <c r="S34" s="6">
-        <f t="shared" si="35"/>
-        <v>0.24548166421834794</v>
+        <f t="shared" si="33"/>
+        <v>0.26301796048599191</v>
       </c>
       <c r="T34" s="6">
-        <f t="shared" si="35"/>
-        <v>0.2504239547561492</v>
+        <f t="shared" si="33"/>
+        <v>0.26432054055999959</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
@@ -2183,27 +2188,27 @@
         <v>0.16682649842271294</v>
       </c>
       <c r="N35" s="10">
-        <f t="shared" ref="N35:O35" si="36">N15/N10</f>
+        <f t="shared" ref="N35:O35" si="34">N15/N10</f>
         <v>0.17461501406305843</v>
       </c>
       <c r="O35" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0.15763091570988519</v>
       </c>
       <c r="P35" s="10">
-        <v>0.16500000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="Q35" s="10">
-        <v>0.16500000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="R35" s="10">
-        <v>0.16500000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="S35" s="10">
-        <v>0.16500000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="T35" s="10">
-        <v>0.16500000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
@@ -2215,32 +2220,27 @@
         <v>0.41061125330788251</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" ref="N36:O36" si="37">N16/N11</f>
+        <f t="shared" ref="N36:O36" si="35">N16/N11</f>
         <v>0.40844134263875043</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0.41379881558785769</v>
       </c>
       <c r="P36" s="6">
-        <f>O36*1.03</f>
-        <v>0.42621278005549346</v>
+        <v>0.5</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" ref="Q36:T36" si="38">P36*1.03</f>
-        <v>0.43899916345715828</v>
+        <v>0.5</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="38"/>
-        <v>0.45216913836087302</v>
+        <v>0.5</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" si="38"/>
-        <v>0.46573421251169922</v>
+        <v>0.5</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" si="38"/>
-        <v>0.47970623888705022</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
@@ -2252,11 +2252,11 @@
         <v>0.16534540229323272</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" ref="N37:O37" si="39">N19/N12</f>
+        <f t="shared" ref="N37:O37" si="36">N19/N12</f>
         <v>0.17707661860333615</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0.1570939759540427</v>
       </c>
       <c r="P37" s="6">
@@ -2285,23 +2285,23 @@
       </c>
       <c r="P39" s="2">
         <f>O39+P24</f>
-        <v>-27561.588771999996</v>
+        <v>-24553.858134999999</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" ref="Q39:S39" si="40">P39+Q24</f>
-        <v>-23511.317183730385</v>
+        <f t="shared" ref="Q39:S39" si="37">P39+Q24</f>
+        <v>-17629.829390973999</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="40"/>
-        <v>-18752.836583264027</v>
+        <f t="shared" si="37"/>
+        <v>-10172.679165737551</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="40"/>
-        <v>-13210.522343581733</v>
+        <f t="shared" si="37"/>
+        <v>-2152.783005303284</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" ref="T39" si="41">S39+T24</f>
-        <v>-6801.9549434153441</v>
+        <f t="shared" ref="T39" si="38">S39+T24</f>
+        <v>6460.9374293452156</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
@@ -2340,32 +2340,32 @@
         <v>2422</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" ref="N46:T46" si="42">N24</f>
+        <f t="shared" ref="N46:T46" si="39">N24</f>
         <v>3372</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>4576</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="42"/>
-        <v>3411.4112280000036</v>
+        <f t="shared" si="39"/>
+        <v>6419.1418650000014</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" si="42"/>
-        <v>4050.2715882696093</v>
+        <f t="shared" si="39"/>
+        <v>6924.0287440259999</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="42"/>
-        <v>4758.4806004663587</v>
+        <f t="shared" si="39"/>
+        <v>7457.150225236448</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="42"/>
-        <v>5542.3142396822932</v>
+        <f t="shared" si="39"/>
+        <v>8019.8961604342667</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" si="42"/>
-        <v>6408.5674001663892</v>
+        <f t="shared" si="39"/>
+        <v>8613.7204346484996</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
@@ -2397,23 +2397,23 @@
       </c>
       <c r="P48" s="2">
         <f>O48*(1+P28)</f>
-        <v>3201.2418244791616</v>
+        <v>3358.0591223958058</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" ref="Q48:T48" si="43">P48*(1+Q28)</f>
-        <v>3281.6797584270726</v>
+        <f t="shared" ref="Q48:T48" si="40">P48*(1+Q28)</f>
+        <v>3443.3694029947578</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="43"/>
-        <v>3364.3829749522743</v>
+        <f t="shared" si="40"/>
+        <v>3531.1118531317297</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="43"/>
-        <v>3449.4230406622469</v>
+        <f t="shared" si="40"/>
+        <v>3621.364154754524</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="43"/>
-        <v>3536.8740039348559</v>
+        <f t="shared" si="40"/>
+        <v>3714.2067049921807</v>
       </c>
     </row>
     <row r="49" spans="1:116" x14ac:dyDescent="0.2">
@@ -2434,19 +2434,19 @@
         <v>863.50000000000011</v>
       </c>
       <c r="Q49" s="2">
-        <f t="shared" ref="Q49:T49" si="44">P49*1.1</f>
+        <f t="shared" ref="Q49:T49" si="41">P49*1.1</f>
         <v>949.85000000000025</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>1044.8350000000003</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>1149.3185000000003</v>
       </c>
       <c r="T49" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>1264.2503500000005</v>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
         <v>42</v>
       </c>
       <c r="W50" s="9">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="51" spans="1:116" x14ac:dyDescent="0.2">
@@ -2552,7 +2552,7 @@
         <v>44</v>
       </c>
       <c r="W52" s="9">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="53" spans="1:116" ht="15" x14ac:dyDescent="0.25">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="W53" s="4">
         <f>NPV(W52,P60:XFD60)+main!C5-main!C6</f>
-        <v>74493.439377119139</v>
+        <v>89472.411643992018</v>
       </c>
     </row>
     <row r="54" spans="1:116" x14ac:dyDescent="0.2">
@@ -2622,9 +2622,9 @@
       <c r="V54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W54" s="2">
+      <c r="W54" s="7">
         <f>W53/main!C3</f>
-        <v>106.74847239817326</v>
+        <v>128.21321373584351</v>
       </c>
     </row>
     <row r="55" spans="1:116" ht="15" x14ac:dyDescent="0.25">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="W55" s="8">
         <f>W54/main!C2-1</f>
-        <v>-3.8302050466907489E-2</v>
+        <v>0.15507399762021179</v>
       </c>
     </row>
     <row r="56" spans="1:116" x14ac:dyDescent="0.2">
@@ -2734,32 +2734,32 @@
         <v>2916</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" ref="N58:O58" si="45">SUM(N47:N57)</f>
+        <f t="shared" ref="N58:O58" si="42">SUM(N47:N57)</f>
         <v>9328</v>
       </c>
       <c r="O58" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>4521</v>
       </c>
       <c r="P58" s="4">
         <f>SUM(P48:P57,P46)</f>
-        <v>7476.1530524791651</v>
+        <v>10640.700987395809</v>
       </c>
       <c r="Q58" s="4">
-        <f t="shared" ref="Q58:T58" si="46">SUM(Q48:Q57,Q46)</f>
-        <v>8281.8013466966822</v>
+        <f t="shared" ref="Q58:T58" si="43">SUM(Q48:Q57,Q46)</f>
+        <v>11317.248147020757</v>
       </c>
       <c r="R58" s="4">
-        <f t="shared" si="46"/>
-        <v>9167.6985754186335</v>
+        <f t="shared" si="43"/>
+        <v>12033.097078368177</v>
       </c>
       <c r="S58" s="4">
-        <f t="shared" si="46"/>
-        <v>10141.055780344541</v>
+        <f t="shared" si="43"/>
+        <v>12790.57881518879</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="46"/>
-        <v>11209.691754101244</v>
+        <f t="shared" si="43"/>
+        <v>13592.177489640681</v>
       </c>
     </row>
     <row r="59" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2778,23 +2778,23 @@
       </c>
       <c r="P59" s="4">
         <f>O59*(1+P28)</f>
-        <v>-2718.4416645913338</v>
+        <v>-2851.6083229566689</v>
       </c>
       <c r="Q59" s="4">
-        <f t="shared" ref="Q59:T59" si="47">P59*(1+Q28)</f>
-        <v>-2786.7482290581474</v>
+        <f t="shared" ref="Q59:T59" si="44">P59*(1+Q28)</f>
+        <v>-2924.0524036958363</v>
       </c>
       <c r="R59" s="4">
-        <f t="shared" si="47"/>
-        <v>-2856.9784340612969</v>
+        <f t="shared" si="44"/>
+        <v>-2998.5618426209885</v>
       </c>
       <c r="S59" s="4">
-        <f t="shared" si="47"/>
-        <v>-2929.1930527813888</v>
+        <f t="shared" si="44"/>
+        <v>-3075.2026059586929</v>
       </c>
       <c r="T59" s="4">
-        <f t="shared" si="47"/>
-        <v>-3003.4549658774372</v>
+        <f t="shared" si="44"/>
+        <v>-3154.0429656225629</v>
       </c>
     </row>
     <row r="60" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2807,416 +2807,416 @@
         <v>-87</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" ref="N60:O60" si="48">N58+N59</f>
+        <f t="shared" ref="N60:O60" si="45">N58+N59</f>
         <v>6572</v>
       </c>
       <c r="O60" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>1869</v>
       </c>
       <c r="P60" s="4">
-        <f t="shared" ref="P60" si="49">P58+P59</f>
-        <v>4757.7113878878317</v>
+        <f t="shared" ref="P60" si="46">P58+P59</f>
+        <v>7789.0926644391402</v>
       </c>
       <c r="Q60" s="4">
-        <f t="shared" ref="Q60" si="50">Q58+Q59</f>
-        <v>5495.0531176385348</v>
+        <f t="shared" ref="Q60" si="47">Q58+Q59</f>
+        <v>8393.1957433249208</v>
       </c>
       <c r="R60" s="4">
-        <f t="shared" ref="R60" si="51">R58+R59</f>
-        <v>6310.7201413573366</v>
+        <f t="shared" ref="R60" si="48">R58+R59</f>
+        <v>9034.5352357471893</v>
       </c>
       <c r="S60" s="4">
-        <f t="shared" ref="S60" si="52">S58+S59</f>
-        <v>7211.8627275631516</v>
+        <f t="shared" ref="S60" si="49">S58+S59</f>
+        <v>9715.3762092300967</v>
       </c>
       <c r="T60" s="4">
-        <f t="shared" ref="T60" si="53">T58+T59</f>
-        <v>8206.2367882238068</v>
+        <f t="shared" ref="T60" si="50">T58+T59</f>
+        <v>10438.134524018118</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" ref="U60:AZ60" si="54">T60*(1+$W$51)</f>
-        <v>8288.2991561060444</v>
+        <f t="shared" ref="U60:AZ60" si="51">T60*(1+$W$51)</f>
+        <v>10542.515869258299</v>
       </c>
       <c r="V60" s="4">
-        <f t="shared" si="54"/>
-        <v>8371.1821476671048</v>
+        <f t="shared" si="51"/>
+        <v>10647.941027950883</v>
       </c>
       <c r="W60" s="4">
-        <f t="shared" si="54"/>
-        <v>8454.8939691437754</v>
+        <f t="shared" si="51"/>
+        <v>10754.420438230392</v>
       </c>
       <c r="X60" s="4">
-        <f t="shared" si="54"/>
-        <v>8539.4429088352135</v>
+        <f t="shared" si="51"/>
+        <v>10861.964642612696</v>
       </c>
       <c r="Y60" s="4">
-        <f t="shared" si="54"/>
-        <v>8624.8373379235654</v>
+        <f t="shared" si="51"/>
+        <v>10970.584289038823</v>
       </c>
       <c r="Z60" s="4">
-        <f t="shared" si="54"/>
-        <v>8711.0857113028014</v>
+        <f t="shared" si="51"/>
+        <v>11080.29013192921</v>
       </c>
       <c r="AA60" s="4">
-        <f t="shared" si="54"/>
-        <v>8798.1965684158295</v>
+        <f t="shared" si="51"/>
+        <v>11191.093033248502</v>
       </c>
       <c r="AB60" s="4">
-        <f t="shared" si="54"/>
-        <v>8886.1785340999886</v>
+        <f t="shared" si="51"/>
+        <v>11303.003963580988</v>
       </c>
       <c r="AC60" s="4">
-        <f t="shared" si="54"/>
-        <v>8975.0403194409882</v>
+        <f t="shared" si="51"/>
+        <v>11416.034003216799</v>
       </c>
       <c r="AD60" s="4">
-        <f t="shared" si="54"/>
-        <v>9064.7907226353982</v>
+        <f t="shared" si="51"/>
+        <v>11530.194343248966</v>
       </c>
       <c r="AE60" s="4">
-        <f t="shared" si="54"/>
-        <v>9155.4386298617519</v>
+        <f t="shared" si="51"/>
+        <v>11645.496286681457</v>
       </c>
       <c r="AF60" s="4">
-        <f t="shared" si="54"/>
-        <v>9246.9930161603697</v>
+        <f t="shared" si="51"/>
+        <v>11761.951249548272</v>
       </c>
       <c r="AG60" s="4">
-        <f t="shared" si="54"/>
-        <v>9339.4629463219735</v>
+        <f t="shared" si="51"/>
+        <v>11879.570762043755</v>
       </c>
       <c r="AH60" s="4">
-        <f t="shared" si="54"/>
-        <v>9432.8575757851941</v>
+        <f t="shared" si="51"/>
+        <v>11998.366469664194</v>
       </c>
       <c r="AI60" s="4">
-        <f t="shared" si="54"/>
-        <v>9527.1861515430464</v>
+        <f t="shared" si="51"/>
+        <v>12118.350134360835</v>
       </c>
       <c r="AJ60" s="4">
-        <f t="shared" si="54"/>
-        <v>9622.4580130584764</v>
+        <f t="shared" si="51"/>
+        <v>12239.533635704443</v>
       </c>
       <c r="AK60" s="4">
-        <f t="shared" si="54"/>
-        <v>9718.6825931890617</v>
+        <f t="shared" si="51"/>
+        <v>12361.928972061489</v>
       </c>
       <c r="AL60" s="4">
-        <f t="shared" si="54"/>
-        <v>9815.8694191209524</v>
+        <f t="shared" si="51"/>
+        <v>12485.548261782104</v>
       </c>
       <c r="AM60" s="4">
-        <f t="shared" si="54"/>
-        <v>9914.0281133121625</v>
+        <f t="shared" si="51"/>
+        <v>12610.403744399924</v>
       </c>
       <c r="AN60" s="4">
-        <f t="shared" si="54"/>
-        <v>10013.168394445283</v>
+        <f t="shared" si="51"/>
+        <v>12736.507781843924</v>
       </c>
       <c r="AO60" s="4">
-        <f t="shared" si="54"/>
-        <v>10113.300078389737</v>
+        <f t="shared" si="51"/>
+        <v>12863.872859662364</v>
       </c>
       <c r="AP60" s="4">
-        <f t="shared" si="54"/>
-        <v>10214.433079173634</v>
+        <f t="shared" si="51"/>
+        <v>12992.511588258987</v>
       </c>
       <c r="AQ60" s="4">
-        <f t="shared" si="54"/>
-        <v>10316.57740996537</v>
+        <f t="shared" si="51"/>
+        <v>13122.436704141577</v>
       </c>
       <c r="AR60" s="4">
-        <f t="shared" si="54"/>
-        <v>10419.743184065024</v>
+        <f t="shared" si="51"/>
+        <v>13253.661071182993</v>
       </c>
       <c r="AS60" s="4">
-        <f t="shared" si="54"/>
-        <v>10523.940615905674</v>
+        <f t="shared" si="51"/>
+        <v>13386.197681894822</v>
       </c>
       <c r="AT60" s="4">
-        <f t="shared" si="54"/>
-        <v>10629.180022064731</v>
+        <f t="shared" si="51"/>
+        <v>13520.059658713772</v>
       </c>
       <c r="AU60" s="4">
-        <f t="shared" si="54"/>
-        <v>10735.471822285379</v>
+        <f t="shared" si="51"/>
+        <v>13655.260255300909</v>
       </c>
       <c r="AV60" s="4">
-        <f t="shared" si="54"/>
-        <v>10842.826540508233</v>
+        <f t="shared" si="51"/>
+        <v>13791.812857853918</v>
       </c>
       <c r="AW60" s="4">
-        <f t="shared" si="54"/>
-        <v>10951.254805913315</v>
+        <f t="shared" si="51"/>
+        <v>13929.730986432458</v>
       </c>
       <c r="AX60" s="4">
-        <f t="shared" si="54"/>
-        <v>11060.767353972449</v>
+        <f t="shared" si="51"/>
+        <v>14069.028296296783</v>
       </c>
       <c r="AY60" s="4">
-        <f t="shared" si="54"/>
-        <v>11171.375027512173</v>
+        <f t="shared" si="51"/>
+        <v>14209.71857925975</v>
       </c>
       <c r="AZ60" s="4">
-        <f t="shared" si="54"/>
-        <v>11283.088777787294</v>
+        <f t="shared" si="51"/>
+        <v>14351.815765052348</v>
       </c>
       <c r="BA60" s="4">
-        <f t="shared" ref="BA60:CF60" si="55">AZ60*(1+$W$51)</f>
-        <v>11395.919665565167</v>
+        <f t="shared" ref="BA60:CF60" si="52">AZ60*(1+$W$51)</f>
+        <v>14495.333922702872</v>
       </c>
       <c r="BB60" s="4">
-        <f t="shared" si="55"/>
-        <v>11509.878862220818</v>
+        <f t="shared" si="52"/>
+        <v>14640.287261929901</v>
       </c>
       <c r="BC60" s="4">
-        <f t="shared" si="55"/>
-        <v>11624.977650843026</v>
+        <f t="shared" si="52"/>
+        <v>14786.690134549201</v>
       </c>
       <c r="BD60" s="4">
-        <f t="shared" si="55"/>
-        <v>11741.227427351456</v>
+        <f t="shared" si="52"/>
+        <v>14934.557035894693</v>
       </c>
       <c r="BE60" s="4">
-        <f t="shared" si="55"/>
-        <v>11858.63970162497</v>
+        <f t="shared" si="52"/>
+        <v>15083.902606253641</v>
       </c>
       <c r="BF60" s="4">
-        <f t="shared" si="55"/>
-        <v>11977.22609864122</v>
+        <f t="shared" si="52"/>
+        <v>15234.741632316178</v>
       </c>
       <c r="BG60" s="4">
-        <f t="shared" si="55"/>
-        <v>12096.998359627632</v>
+        <f t="shared" si="52"/>
+        <v>15387.08904863934</v>
       </c>
       <c r="BH60" s="4">
-        <f t="shared" si="55"/>
-        <v>12217.968343223909</v>
+        <f t="shared" si="52"/>
+        <v>15540.959939125734</v>
       </c>
       <c r="BI60" s="4">
-        <f t="shared" si="55"/>
-        <v>12340.148026656148</v>
+        <f t="shared" si="52"/>
+        <v>15696.369538516992</v>
       </c>
       <c r="BJ60" s="4">
-        <f t="shared" si="55"/>
-        <v>12463.549506922711</v>
+        <f t="shared" si="52"/>
+        <v>15853.333233902162</v>
       </c>
       <c r="BK60" s="4">
-        <f t="shared" si="55"/>
-        <v>12588.185001991938</v>
+        <f t="shared" si="52"/>
+        <v>16011.866566241184</v>
       </c>
       <c r="BL60" s="4">
-        <f t="shared" si="55"/>
-        <v>12714.066852011858</v>
+        <f t="shared" si="52"/>
+        <v>16171.985231903596</v>
       </c>
       <c r="BM60" s="4">
-        <f t="shared" si="55"/>
-        <v>12841.207520531976</v>
+        <f t="shared" si="52"/>
+        <v>16333.705084222633</v>
       </c>
       <c r="BN60" s="4">
-        <f t="shared" si="55"/>
-        <v>12969.619595737297</v>
+        <f t="shared" si="52"/>
+        <v>16497.042135064858</v>
       </c>
       <c r="BO60" s="4">
-        <f t="shared" si="55"/>
-        <v>13099.315791694669</v>
+        <f t="shared" si="52"/>
+        <v>16662.012556415506</v>
       </c>
       <c r="BP60" s="4">
-        <f t="shared" si="55"/>
-        <v>13230.308949611615</v>
+        <f t="shared" si="52"/>
+        <v>16828.63268197966</v>
       </c>
       <c r="BQ60" s="4">
-        <f t="shared" si="55"/>
-        <v>13362.612039107731</v>
+        <f t="shared" si="52"/>
+        <v>16996.919008799458</v>
       </c>
       <c r="BR60" s="4">
-        <f t="shared" si="55"/>
-        <v>13496.238159498809</v>
+        <f t="shared" si="52"/>
+        <v>17166.888198887453</v>
       </c>
       <c r="BS60" s="4">
-        <f t="shared" si="55"/>
-        <v>13631.200541093798</v>
+        <f t="shared" si="52"/>
+        <v>17338.557080876326</v>
       </c>
       <c r="BT60" s="4">
-        <f t="shared" si="55"/>
-        <v>13767.512546504737</v>
+        <f t="shared" si="52"/>
+        <v>17511.942651685091</v>
       </c>
       <c r="BU60" s="4">
-        <f t="shared" si="55"/>
-        <v>13905.187671969785</v>
+        <f t="shared" si="52"/>
+        <v>17687.062078201943</v>
       </c>
       <c r="BV60" s="4">
-        <f t="shared" si="55"/>
-        <v>14044.239548689482</v>
+        <f t="shared" si="52"/>
+        <v>17863.932698983961</v>
       </c>
       <c r="BW60" s="4">
-        <f t="shared" si="55"/>
-        <v>14184.681944176376</v>
+        <f t="shared" si="52"/>
+        <v>18042.572025973801</v>
       </c>
       <c r="BX60" s="4">
-        <f t="shared" si="55"/>
-        <v>14326.52876361814</v>
+        <f t="shared" si="52"/>
+        <v>18222.997746233537</v>
       </c>
       <c r="BY60" s="4">
-        <f t="shared" si="55"/>
-        <v>14469.794051254321</v>
+        <f t="shared" si="52"/>
+        <v>18405.227723695873</v>
       </c>
       <c r="BZ60" s="4">
-        <f t="shared" si="55"/>
-        <v>14614.491991766865</v>
+        <f t="shared" si="52"/>
+        <v>18589.280000932831</v>
       </c>
       <c r="CA60" s="4">
-        <f t="shared" si="55"/>
-        <v>14760.636911684534</v>
+        <f t="shared" si="52"/>
+        <v>18775.17280094216</v>
       </c>
       <c r="CB60" s="4">
-        <f t="shared" si="55"/>
-        <v>14908.24328080138</v>
+        <f t="shared" si="52"/>
+        <v>18962.924528951582</v>
       </c>
       <c r="CC60" s="4">
-        <f t="shared" si="55"/>
-        <v>15057.325713609394</v>
+        <f t="shared" si="52"/>
+        <v>19152.5537742411</v>
       </c>
       <c r="CD60" s="4">
-        <f t="shared" si="55"/>
-        <v>15207.898970745489</v>
+        <f t="shared" si="52"/>
+        <v>19344.079311983511</v>
       </c>
       <c r="CE60" s="4">
-        <f t="shared" si="55"/>
-        <v>15359.977960452945</v>
+        <f t="shared" si="52"/>
+        <v>19537.520105103347</v>
       </c>
       <c r="CF60" s="4">
-        <f t="shared" si="55"/>
-        <v>15513.577740057475</v>
+        <f t="shared" si="52"/>
+        <v>19732.89530615438</v>
       </c>
       <c r="CG60" s="4">
-        <f t="shared" ref="CG60:DL60" si="56">CF60*(1+$W$51)</f>
-        <v>15668.713517458051</v>
+        <f t="shared" ref="CG60:DL60" si="53">CF60*(1+$W$51)</f>
+        <v>19930.224259215924</v>
       </c>
       <c r="CH60" s="4">
-        <f t="shared" si="56"/>
-        <v>15825.400652632632</v>
+        <f t="shared" si="53"/>
+        <v>20129.526501808083</v>
       </c>
       <c r="CI60" s="4">
-        <f t="shared" si="56"/>
-        <v>15983.654659158958</v>
+        <f t="shared" si="53"/>
+        <v>20330.821766826164</v>
       </c>
       <c r="CJ60" s="4">
-        <f t="shared" si="56"/>
-        <v>16143.491205750548</v>
+        <f t="shared" si="53"/>
+        <v>20534.129984494426</v>
       </c>
       <c r="CK60" s="4">
-        <f t="shared" si="56"/>
-        <v>16304.926117808054</v>
+        <f t="shared" si="53"/>
+        <v>20739.471284339372</v>
       </c>
       <c r="CL60" s="4">
-        <f t="shared" si="56"/>
-        <v>16467.975378986135</v>
+        <f t="shared" si="53"/>
+        <v>20946.865997182766</v>
       </c>
       <c r="CM60" s="4">
-        <f t="shared" si="56"/>
-        <v>16632.655132775995</v>
+        <f t="shared" si="53"/>
+        <v>21156.334657154592</v>
       </c>
       <c r="CN60" s="4">
-        <f t="shared" si="56"/>
-        <v>16798.981684103754</v>
+        <f t="shared" si="53"/>
+        <v>21367.898003726139</v>
       </c>
       <c r="CO60" s="4">
-        <f t="shared" si="56"/>
-        <v>16966.97150094479</v>
+        <f t="shared" si="53"/>
+        <v>21581.5769837634</v>
       </c>
       <c r="CP60" s="4">
-        <f t="shared" si="56"/>
-        <v>17136.641215954238</v>
+        <f t="shared" si="53"/>
+        <v>21797.392753601034</v>
       </c>
       <c r="CQ60" s="4">
-        <f t="shared" si="56"/>
-        <v>17308.007628113781</v>
+        <f t="shared" si="53"/>
+        <v>22015.366681137046</v>
       </c>
       <c r="CR60" s="4">
-        <f t="shared" si="56"/>
-        <v>17481.087704394919</v>
+        <f t="shared" si="53"/>
+        <v>22235.520347948415</v>
       </c>
       <c r="CS60" s="4">
-        <f t="shared" si="56"/>
-        <v>17655.898581438869</v>
+        <f t="shared" si="53"/>
+        <v>22457.8755514279</v>
       </c>
       <c r="CT60" s="4">
-        <f t="shared" si="56"/>
-        <v>17832.457567253259</v>
+        <f t="shared" si="53"/>
+        <v>22682.454306942178</v>
       </c>
       <c r="CU60" s="4">
-        <f t="shared" si="56"/>
-        <v>18010.782142925793</v>
+        <f t="shared" si="53"/>
+        <v>22909.2788500116</v>
       </c>
       <c r="CV60" s="4">
-        <f t="shared" si="56"/>
-        <v>18190.88996435505</v>
+        <f t="shared" si="53"/>
+        <v>23138.371638511715</v>
       </c>
       <c r="CW60" s="4">
-        <f t="shared" si="56"/>
-        <v>18372.7988639986</v>
+        <f t="shared" si="53"/>
+        <v>23369.755354896832</v>
       </c>
       <c r="CX60" s="4">
-        <f t="shared" si="56"/>
-        <v>18556.526852638584</v>
+        <f t="shared" si="53"/>
+        <v>23603.452908445801</v>
       </c>
       <c r="CY60" s="4">
-        <f t="shared" si="56"/>
-        <v>18742.092121164969</v>
+        <f t="shared" si="53"/>
+        <v>23839.487437530261</v>
       </c>
       <c r="CZ60" s="4">
-        <f t="shared" si="56"/>
-        <v>18929.51304237662</v>
+        <f t="shared" si="53"/>
+        <v>24077.882311905563</v>
       </c>
       <c r="DA60" s="4">
-        <f t="shared" si="56"/>
-        <v>19118.808172800385</v>
+        <f t="shared" si="53"/>
+        <v>24318.66113502462</v>
       </c>
       <c r="DB60" s="4">
-        <f t="shared" si="56"/>
-        <v>19309.996254528389</v>
+        <f t="shared" si="53"/>
+        <v>24561.847746374868</v>
       </c>
       <c r="DC60" s="4">
-        <f t="shared" si="56"/>
-        <v>19503.096217073671</v>
+        <f t="shared" si="53"/>
+        <v>24807.466223838615</v>
       </c>
       <c r="DD60" s="4">
-        <f t="shared" si="56"/>
-        <v>19698.127179244409</v>
+        <f t="shared" si="53"/>
+        <v>25055.540886077</v>
       </c>
       <c r="DE60" s="4">
-        <f t="shared" si="56"/>
-        <v>19895.108451036853</v>
+        <f t="shared" si="53"/>
+        <v>25306.096294937772</v>
       </c>
       <c r="DF60" s="4">
-        <f t="shared" si="56"/>
-        <v>20094.059535547221</v>
+        <f t="shared" si="53"/>
+        <v>25559.157257887149</v>
       </c>
       <c r="DG60" s="4">
-        <f t="shared" si="56"/>
-        <v>20295.000130902692</v>
+        <f t="shared" si="53"/>
+        <v>25814.748830466022</v>
       </c>
       <c r="DH60" s="4">
-        <f t="shared" si="56"/>
-        <v>20497.950132211718</v>
+        <f t="shared" si="53"/>
+        <v>26072.896318770683</v>
       </c>
       <c r="DI60" s="4">
-        <f t="shared" si="56"/>
-        <v>20702.929633533837</v>
+        <f t="shared" si="53"/>
+        <v>26333.62528195839</v>
       </c>
       <c r="DJ60" s="4">
-        <f t="shared" si="56"/>
-        <v>20909.958929869175</v>
+        <f t="shared" si="53"/>
+        <v>26596.961534777973</v>
       </c>
       <c r="DK60" s="4">
-        <f t="shared" si="56"/>
-        <v>21119.058519167866</v>
+        <f t="shared" si="53"/>
+        <v>26862.931150125754</v>
       </c>
       <c r="DL60" s="4">
-        <f t="shared" si="56"/>
-        <v>21330.249104359544</v>
+        <f t="shared" si="53"/>
+        <v>27131.560461627014</v>
       </c>
     </row>
   </sheetData>
@@ -3224,6 +3224,7 @@
     <hyperlink ref="A1" location="Sheet1!A1" display="Main" xr:uid="{6B0C802A-F7BA-4EEA-ADAB-A801FB6947EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>